--- a/Resultados_prueba.xlsx
+++ b/Resultados_prueba.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>textos</t>
+          <t>lematizados_str</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>el rector que es el representante local del ministerio de educación tiene la responsabilidad principal de procesar la evaluación a pesar de esta centralización el sistema francés se basa en gran medida en el principio de participación y por lo tanto los docentes están involucrados en todos los procesos inca france 2008 aunque existían diferencias entre los procedimientos de evaluación en los länder alemanes la única herramienta de verificación era la recopilación de algunos documentos de muestra para la verificación central a estas alturas sin embargo la mayoría de los länder han introducido exámenes centrales hasta cierto punto</t>
+          <t>rector representante local ministerio educación responsabilidad principal procesar evaluación centralización sistema francés basar medida principio participación docente involucrado proceso inco france 2008 existir diferencia procedimiento evaluación länder alemán único herramiento verificación recopilación documento mostrar verificación central alturos mayoría länder introducido examen central punto</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -458,37 +458,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>tenga en cuenta que todos los programas antipobreza tienen condiciones incluso aquellos caracterizados como incondicionales nuestro enfoque está en las condiciones de comportamiento vinculadas a los programas antipobreza las condiciones más utilizadas son aquellas que incentivan la creación de activos físicos generalmente a nivel comunitario o la acumulación de capital humano en términos de educación o salud</t>
+          <t>programa antipobrezar condición caracterizado incondicional enfocar condición comportamiento vinculado programa antipobrezar condición utilizado incentivar creación activo físico generalmente nivel comunitario acumulación capital humano término educación salud</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>debido a que son en gran medida invisibles estas formas de trabajo infantil son las más difíciles de abordar las trabajadoras del hogar en su mayoría niñas se encuentran aisladas y sujetas a los caprichos y la disciplina arbitraria de sus empleadores de quienes pueden sufrir abusos el abuso sexual es frecuente pero rara vez procesado la violencia o el abuso en el hogar o en el vecindario ahuyenta a muchos como lo han demostrado estudios en ciudades tan diversas como dhaka bangladesh y moscú federación rusa67 la pobreza también juega un papel</t>
+          <t>medida invisible forma trabajo infantil difícil abordar trabajador hogar mayoría niña encontrar aislado sujeto capricho disciplina arbitrario empleador sufrir abuso abuso sexual frecuente raro procesado violencia abuso hogar vecindario ahuyentar demostrado estudio ciudad diverso dhaka bangladesh moscú federación rusa67 pobreza jugar papel</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>los recursos aún son limitados en este sector los servicios privados con fines de lucro y comunitarios religiosos y seculares son los principales proveedores directos de jardines de infancia y grupos de juego a pesar del crecimiento significativo en este sector todavía hay una serie de desafíos para la provisión de un servicio más universal y consistente para los niños en edad preescolar</t>
+          <t>recurso limitado sector servicio privado fin lucro comunitario religioso secular principal proveedor directo jardín infancia grupo juego crecimiento significativo sector serie desafío provisión servicio universal consistente niño edad preescolar</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>durante el período 1985-2008 la educación primaria secundaria y terciaria experimentó un aumento sin precedentes en la matrícula la educación superior mostró el mayor crecimiento con un 931 lo que representa un aumento anual del 41 la mejora del acceso se refleja en el porcentaje de matriculación en educación superior en la cohorte de edad de 19 a 24 años que creció del 06 en 1970 al 244 en 2007</t>
+          <t>período 1985-2008 educación primario secundario terciario experimentar aumento precedente matrícula educación superior mostrar crecimiento 931 representar aumento anual 41 mejorar acceso reflejar porcentaje matriculación educación superior cohorte edad 19 24 año crecer 06 1970 244 2007</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>en la región de asia y el pacífico casi el 87 de los niños de 1 año o menos están inmunizados contra el sarampión sin embargo este agregado enmascara las diferencias entre subregiones asia oriental y nororiental 987 y asia septentrional y central 967 tienen una tasa de inmunización cercana al 100 asia meridional y sudoccidental tiene la tasa más baja 785 seguida del pacífico 817</t>
+          <t>región asia pacífico 87 niño 1 año inmunizado sarampión agregado enmascarar diferencia subregión asia oriental nororiental 987 asia septentrional central 967 tasa inmunización cercano 100 asia meridional sudoccidental tasa bajo 785 seguido pacífico 817</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>esta combinación representa una oportunidad para que tanto los alumnos indígenas como los no indígenas se familiaricen con las tradiciones indígenas y al mismo tiempo fomenta un proceso de aprendizaje mutuo entre los profesores aunque incipiente también existe un esfuerzo por aumentar el nivel de concienciación sobre la interculturalidad entre la población en general si bien el programa peib existe desde 1996 no fue sino hasta 2009 que el gobierno chileno estableció explícitamente el principio de interculturalidad y protección de la lengua y cultura indígena a través de la ley general de educación e incorporó la lengua indígena al currículo</t>
+          <t>combinación representar oportunidad alumno indígena indígena familiaricir tradición indígena tiempo fomentar proceso aprendizaje mutuo profesor incipiente esfuerzo aumentar nivel concienciación interculturalidad población general programa peib 1996 2009 gobierno chileno establecer explícitamente principio interculturalidad protección lenguo cultura indígén ley general educación incorporar lengua indígén currículo</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>además muchos llevan a cabo prácticas de seguimiento de la calidad del servicio con el objetivo de informar al público sobre el nivel de calidad proporcionado 19 lo que brinda más transparencia a los usuarios de la eapi además es común monitorear la calidad del servicio para mejorar el desarrollo de los niños 16 y mejorar el desempeño del personal 16 fuente tabla 31 red de la ocde sobre eapi encuesta en línea sobre el seguimiento de la calidad en el aprendizaje y el desarrollo tempranos noviembre de 2013</t>
+          <t>llevar cabo práctica seguimiento calidad servicio objetivo informar público nivel calidad proporcionado 19 brindo transparencia usuario eapi común monitorear calidad servicio mejorar desarrollo niños 16 mejorar desempeño personal 16 fuente tabla 31 red ocde eapi encuesta líneo seguimiento calidad aprendizaje desarrollo temprano noviembre 2013</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>el alcance de esta visión holística se basa en los avances logrados durante el período de los odm durante el cual las tasas netas de matriculación en la educación primaria aumentaron del 83 al 91 por ciento en las regiones en desarrollo del mundo naciones unidas 2015 como lo refuerza la declaración de incheon del foro mundial de educación 2015 foro mundial de educación 2015 la educación y el aprendizaje a lo largo de toda la vida se reconocen a través del ods 4 como derechos humanos fundamentales y vitales para hacer realidad las aspiraciones más amplias de la agenda 2030 para el desarrollo sostenible finalmente muchas iniciativas basadas en el deporte también se han orientado hacia el desarrollo holístico y el empoderamiento de los jóvenes y la difusión de mensajes educativos por lo que son relevantes para las metas 44 y 47 de los ods</t>
+          <t>alcance visión holístico basar avance logrado período odm tasa neto matriculación educación primario aumentar 83 91 ciento región desarrollo mundo naciones unidas 2015 reforzar declaración incheon foro mundial educación 2015 foro mundial educación 2015 educación aprendizaje vida reconocer ods 4 derechos humanos fundamental vital realidad aspiración amplio agenda 2030 desarrollo sostenible finalmente iniciativa basado deporte orientado desarrollo holístico empoderamiento joven difusión mensaje educativo relevante meta 44 47 od</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,17 +538,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>véase c correa protecting test data for pharmaceutical and agrochemical products under free trade agreements en negotiating health pp sin embargo como ya se ha mencionado se reconoce ampliamente que esta obligación crea barreras insuperables para los productores de genéricos en términos de recursos financieros y de tiempo cuando los datos protegidos se refieren a sustancias no protegidas por patentes un régimen de exclusividad de los datos erige por tanto una nueva e importante barrera de acceso al mercado para los productores de genéricos</t>
+          <t>vea él c correa protecting test data for pharmaceutical and agrochemical products under free tradar agreements negotiating health pp mencionado reconocer ampliamente obligación creer barrera insuperabl productor genérico término recurso financiero tiempo dato protegido referir sustancia protegido patente régimen exclusividad dato erigir importante barrera acceso mercado productor genérico</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>en 2012 alrededor del 10 de la variación en la puntuación de matemáticas en la prueba pisa se explicó por el entorno socioeconómico de los estudiantes en corea de media en la ocde alrededor del 15 de la variación en la puntuación de matemáticas de pisa se explica por el entorno socioeconómico que alcanza más del 15 en países como francia y alemania como en la mayoría de los demás países de la ocde la variación en la puntuación de matemáticas de pisa es mayor dentro de las escuelas que entre escuelas</t>
+          <t>2012 10 variación puntuación matemático prueba pís entorno socioeconómico estudiante corea medio ocde 15 variación puntuación matemático pís explicar entorno socioeconómico alcanzar 15 país francia alemania mayoría país ocde variación puntuación matemático pís escuela escuela</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>esto reduce el desempeño promedio del país ver figura 33 además la proporción muy pequeña de estudiantes 09 que alcanzan los niveles más altos en ciencias matemáticas o lectura niveles 5 o 6 muy por debajo del promedio de los países de la ocde 15 significa que hay una grupo muy pequeño de jóvenes que terminan la escuela y que están bien preparados para seguir una educación técnica y científica de nivel superior un gran desafío para un país que busca desarrollar sus industrias basadas en el conocimiento casi un tercio 31 de los jóvenes de 15 años han repetido año en costa rica por encima de todos los países de la ocde excepto méxico ver figura 34 sin embargo las tasas de repetición de curso en la escuela primaria se redujeron casi a la mitad entre 2005 y 2014 del 75 al 43 como resultado de las nuevas normas que restringen su uso véase el capítulo 4</t>
+          <t>reducir desempeño promedio país figurar 33 proporción pequeño estudiante 09 alcanzar nivel alto ciencia matemático lectura niveles 5 6 promedio país ocde 15 significar grupo pequeño joven terminar escuela preparado seguir educación técnico científico nivel superior desafío país buscar desarrollar industria basado conocimiento tercio 31 joven 15 año repetido año costa rico país ocde méxico figurar 34 tasa repetición curso escuela primario reducir mitad 2005 2014 75 43 resultado norma restringir véar capítulo 4</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>en general la literatura sugiere que una reducción significativa de las tasas de pobreza es consecuencia del crecimiento económico combinado con políticas para reducir la desigualdad de ingresos el resultado conjunto de estos dos efectos es que la reducción de la pobreza se traduce directamente en mejoras en el ingreso promedio de los más pobres según este autor la reducción que se produjo en los primeros años de la década fue consecuencia de varios factores que tuvieron impactos regionales diferenciados entre ellos cambios distributivos en el rendimiento del trabajo y la expansión de los beneficios sociales la proporción de pobres p0 cayó del 3870 en 1995 al 2350 en 2009 cifra que si bien sigue siendo alta representa una reducción de 1520 puntos porcentuales</t>
+          <t>general literatura sugerir reducción significativo tasa pobrezar consecuencio crecimiento económico combinado política reducir desigualdad ingreso resultado conjunto efectos reducción pobreza traducir directamente mejora ingreso promedio pobre autor reducción producir año décado consecuencia factor tener impacto regional diferenciado cambio distributivo rendimiento trabajar expansión beneficio social proporción pobre p0 caer 3870 1995 2350 2009 cifra alto representar reducción 1520 punto porcentual</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>con el tiempo considere alejarse del financiamiento compartido y aumentar los subsidios de cupones lo suficiente para compensar esto si es necesario los asistentes de maestros y maestros de educación especial capacitados brindan apoyo adicional bajo la supervisión del maestro cerca del 30 de la población estudiantil recibe este apoyo cada año field kuczera y pont 2007 si todas estas medidas fallan un equipo multidisciplinario integrado por maestros trabajadores sociales psicólogos y representantes de las autoridades de salud y vivienda pública si es necesario elabora un plan de apoyo</t>
+          <t>tiempo considerar alejar él financiamiento compartido aumentar subsidio cupón suficiente compensar necesario asistente maestro maestro educación especial capacitado brindar apoyo adicional supervisión maestro cerca 30 población estudiantil recibir apoyo año field kuczera pont 2007 medida fallar equipo multidisciplinario integrado maestro trabajador social psicólogo representante autoridad salud vivienda público necesario elaborar plan apoyo</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>la concesión de un título es por lo tanto un reconocimiento oficial de los logros de un estudiante por parte de un organismo competente en un paso adicional la certificación asegura la documentación de las habilidades de los estudiantes que les permite comunicar sus competencias a otros ocde 2007 dado que el final de la educación secundaria superior representa un punto de decisión importante para la progresión de la carrera de un estudiante en la mayoría de los países de la ocde la evaluación para la calificación y la certificación en esta etapa de la educación implica mucho en juego lo que lleva a varias particularidades para su diseño e implementación</t>
+          <t>concesión título reconocimiento oficial logro estudiante organismo competente paso adicional certificación asegurar documentación habilidad estudiant permitir comunicar competencia ocde 2007 educación secundario superior representar puntir decisión importante progresión carrero estudiante mayoría país ocde evaluación calificación certificación etapo educación implicar juego particularidad diseño implementación</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>en muchos aspectos la calidad está en el corazón del sistema de salud de gales este capítulo describe la ya rica arquitectura de calidad de la atención médica de gales la ambición de un excelente sistema de salud centrado en el paciente que promueva la calidad el acceso y la equidad está claramente presente en gales pero ahora se necesitan pasos prácticos tangibles para realizar los cambios necesarios este capítulo hace una serie de recomendaciones para ayudar a gales a fortalecer la garantía y la mejora de la calidad</t>
+          <t>aspecto calidad corazón sistema salud gal capítulo describir rico arquitectura calidad atención médico gal ambición excelente sistema salud centrado paciente promuevo calidad acceso equidad claramente presente gal necesitar paso práctico tangible cambio necesario capítulo serie recomendación ayudar gal fortalecer garantía mejora calidad</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>con el objetivo de convertirse en una de las instituciones de educación superior de mejor rendimiento en todo el mundo como universidad apex la usm ha establecido una agenda transformar la educación superior para un mañana sostenible con el fin de apoyar el impulso para mejorar el bienestar de la humanidad el fondo billones†el fortalecimiento de los programas de posgrado en medicina de la salud ciencias de la vida ciencias de la salud ingeniería y tecnología y tecnología de la información está directamente en consonancia con las prioridades regionales desarrollar el grupo de investigadores e ingenieros altamente calificados es fundamental para la capacidad de la región para competir sobre la base del diseño el desarrollo y la innovación en la industria eléctrica y electrónica y otras industrias</t>
+          <t>objetivo convertir él institución educación superior rendimiento mundo universidad apex usm establecido agenda transformar educación superior mañana sostenible apoyar impulso mejorar bienestar humanidad fondo billones†el fortalecimiento programa posgrado medicín salud ciencia vida ciencias salud ingeniería tecnología tecnologío información directamente consonancia prioridad regional desarrollar grupo investigador ingeniero altamente calificado fundamental capacidad región competir base diseño desarrollo innovación industrio eléctrico electrónico industria</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>recientemente el instituto australiano de docencia y liderazgo escolar aitsl por sus siglas en inglés desarrolló un conjunto nacional de estándares profesionales para directores escolares con el fin de proporcionar un marco nacional para su uso en todas las escuelas y sistemas educativos del país como un paso hacia un enfoque nacional más coherente el estándar profesional nacional para directores tiene como objetivo definir la función de los directores escolares y unificar la profesión a nivel nacional describir la práctica profesional de los directores escolares en un lenguaje común y explicitar el papel del liderazgo escolar de calidad para mejorar los resultados del aprendizaje el estándar nacional de contenidos está diseñado para ayudar a atraer desarrollar y apoyar a los directores de centros escolares aspirantes y en ejercicio</t>
+          <t>recientemente instituto australiano docenciar liderazgo escolar aitsl sigla inglés desarrollar conjunto nacional estándar profesional director escolar proporcionar marco nacional escuela sistema educativo país paso enfoque nacional coherente estándar profesional nacional director objetivo definir función director escolar unificar profesión nivel nacional describir práctica profesional director escolar lenguaje común explicitar papel liderazgo escolar calidad mejorar resultado aprendizaje estándar nacional contenido diseñado ayudar atraer desarrollar apoyar director centro escolar aspirante ejercicio</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>la mayoría de los indicadores incluidos en la medida de pobreza propuesta ya se consideran indicadores básicos en los informes oficiales de alemania sobre pobreza y riqueza p ej bundesregierung 2013 estos indicadores en sí mismos han sido seleccionados en base al asesoramiento académico arndt y volkert 2007 el índice de pobreza se calcula para tres puntos de tiempo que abarcan 2001-2012 y comprende 6 dimensiones educación salud vivienda empleo privación material y participación social</t>
+          <t>mayoría indicador incluido medido pobreza propuesta considerar indicador básico informe oficial alemania pobreza riqueza p ej bundesregierung 2013 indicador seleccionado base asesoramiento académico arndt volkert 2007 índice pobreza calcular punto tiempo abarcar 2001-2012 comprender 6 dimensión educación salud vivienda empleo privación material participación social</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>por lo tanto existen muchos ejemplos documentados de cómo diferentes países de la commonwealth utilizan el deporte para apoyar algunas de sus principales prioridades políticas en materia de salud la red cree que el deporte y la actividad física son medios eficaces para atraer a los jóvenes y al mismo tiempo sirven como medios creativos para facilitar y compartir mensajes positivos sobre el vih y el sida y otros problemas de salud críticos que afectan a la juventud el deporte y la actividad física se utilizan para concienciar sobre el vih y el sida al tiempo que se anima a los jóvenes a debatir cuestiones que afectan a sus vidas y a sus comunidades</t>
+          <t>ejemplo documentado país commonwealth utilizar deporte apoyar principal prioridad política materio salud red creer deporte actividad físico medio eficaz atraer joven tiempo servir medio creativo facilitar compartir mensaje positivo vih sida problema salud crítico afectar juventud deporte actividad físico utilizar concienciar vih sida tiempo animar joven debatir cuestión afectar vida comunidad</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>en 2009 el gobierno de kazak lanzó una nueva iniciativa llamada hoja de ruta destinada a abordar el aumento del desempleo aumentar el poder adquisitivo de la población frenar la migración interna y mejorar los servicios básicos gavrilovic et al the central focus del programa fue la creación de empleo a través de una combinación de obras públicas y formación profesional el programa creó 252277 puestos de trabajo según un informe del adb 2009 citado en gavrilovic et al</t>
+          <t>2009 gobierno kazak lanzar iniciativa llamado hoja ruto destinado abordar aumento desempleo aumentar adquisitivo población frenar migración interno mejorar servicio básico gavrilovic et the central focus programa creación empleo combinación obra público formación profesional programa crear 252277 puesto trabajo informe adb 2009 citado gavrilovic et</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>la edad también podría ser un factor contribuyente ya que se ha visto que las enfermedades mentales entre los jóvenes suecos van en aumento es más probable que las personas más jóvenes requieran atención psiquiátrica consulte la sección 2 y estocolmo tiene una población relativamente joven este elemento de edad sin embargo no es necesariamente aplicable uppsala por ejemplo también tiene una población joven pero informa costos de atención psiquiátrica que sin embargo están en línea con el promedio nacional national board of health and welfare 2010</t>
+          <t>edad factor contribuyente visto enfermedad mental joven sueco aumento probable persona joven requeír atención psiquiátrico consultar sección 2 estocolmir población relativamente joven elemento edad necesariamente aplicable uppsalir ejemplo población joven informar costo atención psiquiátrico línea promedio nacional national board of health and welfare 2010</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>también se ven afectados negativamente por los determinantes subyacentes de la salud como el acceso al agua potable el saneamiento la vivienda adecuada y la nutrición además los profesionales de la salud pueden brindar diagnósticos medicamentos y atención de menor calidad e incluso pueden mostrar negligencia hacia las personas discriminadas la discriminación indirecta que experimentan los pueblos indígenas puede parecer superficialmente neutral pero tiene el efecto de la discriminación un buen ejemplo de discriminación indirecta incluye brindar información y servicios de salud solo en el idioma dominante o de acuerdo con las prácticas culturales dominantes lo que resulta en la exclusión de facto de los pueblos indígenas en la región de asia como en otras partes del mundo los pueblos indígenas han hablado claramente sobre este tema afirmando que tal revolución de datos debería incluir la recopilación de información desagregada sobre indicadores clave tanto para la línea de base como para el seguimiento del progreso</t>
+          <t>ver afectado negativamente determinante subyacente salud acceso agua potable saneamiento vivienda adecuado nutrición profesional salud brindar diagnóstico medicamento atención menor calidad mostrar negligencia persona discriminado discriminación indirecto experimentar pueblo indígena parecer superficialmente neutral efecto discriminación ejemplo discriminación indirecto incluir brindar información servicio salud idiomir dominante práctica cultural dominante resultar exclusión facto pueblo indígena región asir parte mundo pueblo indígena hablado claramente tema afirmar revolución dato deber incluir recopilación información desagregado indicador clave línea base seguimiento progreso</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,17 +678,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>por ejemplo los servicios de urgencias tienen que prestar asistencia aunque ya se hayan cubierto las cuotas anuales de determinados servicios por lo que el número de casos de este tipo puede proporcionar alguna indicación de si las cuotas se han fijado adecuadamente el origen y destino final de los pacientes también puede proporcionar una indicación de si la capacidad en los distintos niveles de atención es adecuada tanto en términos de acceso como de calidad de la atención en 2013 había 31 médicos en ejercicio por cada 1 000 habitantes cerca de la media de la ocde de 32 y un ligero aumento con respecto a 2000 cuando había 29 médicos en ejercicio por cada 1 000 habitantes en letonia</t>
+          <t>ejemplo servicio urgencia prestar asistencia haber cubrir cuota anual determinado servicio número caso tipo proporcionar indicación cuota fijado adecuadamente origen destino paciente proporcionar indicación capacidad distinto nivel atención adecuado término acceso calidad atención 2013 31 médico ejercicio 1 000 habitante cerca medio ocde 32 ligero aumento 2000 29 médico ejercicio 1 000 habitante letonio</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>este ejercicio se realizó sobre la base de una medida de ingresos insuficientes por su parte chile tiene una incidencia de pobreza más baja pero un nivel de intensidad de pobreza muy similar al observado en argentina brasil costa rica y uruguay en cuanto al área de residencia los valores de mo son más altos en las zonas rurales de guatemala nicaragua y perú mientras que en cuanto a la etnia los valores más altos de mo se encuentran entre la población indígena de guatemala paraguay y perú</t>
+          <t>ejercicio base medido ingreso insuficiente chile incidencia pobreza bajo nivel intensidad pobrezar similar observado argentino brasil costa rico uruguay área residencia valor mo alto zona rural guatemala nicaragua perú etnio valor alto mo encontrar población indígén guatemala paraguay perú</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,17 +698,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>sin embargo es posible que dentro de una familia categorizada como en situación de privación los niños no sean víctimas si por ejemplo los padres tienen como prioridad satisfacer las necesidades de sus hijos a diferencia de las encuestas europeas la encuesta canadiense tampoco proporciona información sobre la disponibilidad de recursos para satisfacer las necesidades educativas recreativas o deportivas específicas de los niños la tabla 2 muestra la proporción de niños menores de 17 años en canadá privados de una variedad de bienes materiales recursos y oportunidades agrupados según su condición de pobreza de ingresos los niños que no son pobres tienen menos probabilidades que los niños pobres de ingresos de sufrir privaciones en todas las medidas de la tabla 2</t>
+          <t>familia categorizado situación privación niño víctima ejemplo padr prioridad satisfacer necesidad hijo diferenciar encuesta europeo encuesta canadiense proporcionar información disponibilidad recurso satisfacer necesidad educativo recreativa deportivo específico niño tabla 2 mostrar proporción niño menor 17 año canadá privado variedad bien material recurso oportunidad agrupado condición pobrezar ingreso niño pobre probabilidad niño pobre ingreso sufrir privación medida tabla 2</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>los equipos de intervención temprana aceptan referencias de médicos de cabecera y otros equipos de salud mental de la comunidad a veces los equipos locales de intervención temprana también aceptarán autorreferencias o referencias de amigos y familiares las personas con necesidades complejas que requieren apoyo continuo pueden ser incluidas en el enfoque del programa de atención cpa luego deben recibir un plan de atención y revisiones periódicas</t>
+          <t>equipo intervención temprano aceptar referencia médico cabecerar equipo salud mental comunidad equipo local intervención temprano aceptar autorreferencia referencia amigo familiar persona necesidad complejo requerir apoyo continuo incluido enfoque programa atención cpa recibir plan atención revisión periódico</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,17 +718,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>he descubierto que este síndrome es un obstáculo tan importante para el desarrollo en áfrica como las infraestructuras inadecuadas o la mala gobernanza y ha añadido un peso adicional a la labor de quienes desean que las personas y las comunidades mejoren sus circunstancias esta nota de orientación política examina la relación causal entre la capacitación y el crecimiento en favor de los pobres identifica ocho ámbitos de empoderamiento dentro de tres esferas la económica mercados empleo digno y activos productivos la política representación política y acción colectiva y la social capacidades humanas conciencia crítica e inclusión y describe lo que los donantes pueden hacer para apoyar y reforzar el empoderamiento en esos ámbitos las sugerencias sobre cómo deben trabajar los donantes para lograr un efecto óptimo incluyen mensajes clave para la cooperación al desarrollo</t>
+          <t>descubierto síndrome obstáculo importante desarrollo áfrica infraestructura inadecuado malo gobernanza añadido peso adicional labor desear persona comunidad mejorar circunstancia noto orientación político examín relación causal capacitación crecimiento favor pobre identificar ámbito empoderamiento esfera económico mercado empleo digno activo productivo político representación político acción colectivo social capacidad humano conciencia crítico inclusión describir donante apoyar reforzar empoderamiento ámbito sugerencia trabajar donant lograr efecto óptimo incluir mensaje clave cooperación desarrollo</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>a lo largo de diez años cerraron escuelas especiales y destinaron los recursos al sistema general no obstante reconoce que no siempre se trata a las personas como iguales y que los jóvenes con discapacidad sufren discriminación y desventajas el consejo cree que la educación especial segregada es un factor importante de discriminación</t>
+          <t>año cerrar escuela especial destinar recurso sistema general obstante reconocer persona igual joven discapacidad sufrir discriminación desventaja consejo creer educación especial segregado factor importante discriminación</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>según esta definición aproximadamente 40 millones de los 250 millones de habitantes de la ue viven actualmente en hogares sin trabajo pero en 2008 se inició el seguimiento de la pobreza infantil después de consultas se incluyó un conjunto de indicadores específicos para la vida de los niños como un módulo especial en la ronda de 2009 de las estadísticas de la unión europea sobre ingresos y condiciones de vida eu-silc</t>
+          <t>definición 40 millón 250 millón habitante ue vivir actualmente hogar trabajo 2008 iniciar seguimiento pobreza infantil consulta incluir conjunto indicador específico vida niño módulo especial ronda 2009 estadística unión europea ingreso condición vido eu-silc</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>además los valores judíos definen la cultura dominante de la mayoría de las instituciones de educación superior en galilea gobierno de israel 2009 el desarrollo de la institución académica nazareth nai en el corazón de la ciudad de mayoría árabe de nazareth es un desarrollo especialmente importante ver cuadro 21 dada la gran población árabe en galilea estos son temas críticos que deben abordarse en un examen del papel de los colegios y universidades en el futuro de esta región</t>
+          <t>valor judío definir cultura dominante mayoría institución educación superior galilea gobierno israel 2009 desarrollo institución académico nazareth nai corazón ciudad mayoría árabe nazareth desarrollo especialmente importante cuadro 21 dado población árabe galilea tema crítico abordar él examen papel colegio universidad futuro región</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>el consumo anual de alcohol se estima en 157 litros al año para los hombres más de un 50 por encima de la media de la ocde 104 sistema mundial de información sobre alcohol y salud de la oms lo que puede ayudar a explicar la alta mortalidad por enfermedad hepática relacionada con el alcohol si bien la prevalencia de la obesidad en adultos es relativamente baja en comparación con muchos países de la ocde más del 30 de las mujeres en kazajstán son obesas en comparación con el 16 de los hombres world obesity 2016 lo que coloca la tasa entre las mujeres a la par con algunos de los países más obesos de la ocde de hecho una gran proporción de la brecha en la esperanza de vida se explica por una mayor mortalidad entre los jóvenes kazajos de 15 a 29 años un grupo de edad en el que las tasas generales de mortalidad son más de tres veces más altas que en la ue de los 15</t>
+          <t>consumo anual alcohol estimar 157 litro año hombre 50 medio ocde 104 sistema mundial información alcohol salud oms ayudar explicar alto mortalidad enfermedad hepático relacionado alcohol prevalenciar obesidad adulto relativamente bajo comparación país ocde 30 mujer kazajstán obesa comparación 16 hombre world obesity 2016 colocar tasa mujer par país obeso ocde proporción brecho esperanza vida explicar mortalidad joven kazajo 15 29 año grupo edad tasa general mortalidad alto ue 15</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>la experiencia finlandesa y la investigación internacional demuestran que la inversión en educación primaria se amortiza en cursos posteriores gracias a la mejora de las aptitudes y las capacidades de aprendizaje así como a los resultados generales positivos las escuelas suelen ser pequeñas con clases de entre 15 y 30 alumnos en 2004 más de un tercio de las escuelas integrales finlandesas tenían menos de 50 alumnos solo el 4 de todas las escuelas tenían 500 o más alumnos estadísticas de finlandia 2011</t>
+          <t>experiencia finlandés investigación internacional demostrar inversión educación primario amortizar curso posterior gracias mejorar aptitud capacidad aprendizaje resultado general positivo escuela soler pequeño clase 15 30 alumno 2004 tercio escuela integral finlandés tener 50 alumno 4 escuela tener 500 alumno estadístico finlandiar 2011</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,17 +778,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>el nhif recortó los precios pagados a los proveedores pero en general protegió los gastos de atención primaria en general hay poca deuda acumulada en el sistema de hecho lituania ha reducido considerablemente su sector de camas de hospital desde la década de 1990 aunque no tan drásticamente como sus vecinos bálticos y todavía tiene la segunda proporción más alta de camas de cuidados curativos por población en la ue en años más recientes la reducción se centró principalmente en fusiones de hospitales como entidades legales sin cambiar la infraestructura real</t>
+          <t>nhif recortar precio pagado proveedor general proteger gasto atención primario general deuda acumulado sistema lituania reducido considerablemente sector cama hospital décado 1990 drásticamente vecino báltico proporción alto cama cuidado curativo población ue año reciente reducción centrar principalmente fusión hospital entidad legal cambiar infraestructura real</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>el alcohol es uno de los cuatro factores relacionados con el estilo de vida abordados por la estrategia de enfermedades no transmisibles de 2010 en 2011 se introdujeron medidas legislativas para reducir el consumo excesivo de alcohol mediante restricciones que reducen el acceso a alcohol de menor precio y su consumo en áreas específicas más recientemente se emitió para consulta la primera política nacional sobre alcohol en 2016 malta fue uno de los primeros países en introducir una prohibición de fumar en 2004 y ha actualizado continuamente las regulaciones sobre publicidad y promoción del tabaco</t>
+          <t>alcohol factor relacionado estilo vida abordado estrategia enfermedad transmisibl 2010 2011 introducir medida legislativo reducir consumo excesivo alcohol restricción reducir acceso alcohol menor precio consumo área específico recientemente emitir consulta político nacional alcohol 2016 maltar país introducir prohibición fumar 2004 actualizado continuamente regulación publicidad promoción tabaco</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>entre las instituciones hay colegios academias politécnicos y universidades de ciencias aplicadas las diferentes expresiones en distintos idiomas se suman a las ramificaciones si bien el vocabulario puede resultar comprensible para las personas familiarizadas con los sistemas locales a menudo resultará oscuro para los futuros estudiantes o empleadores lo que socava el valor de los programas sobre todo más allá de las fronteras nacionales</t>
+          <t>institución colegio academia politécnico universidad ciencia aplicado expresión distinto idioma sumar ramificación vocabulario resultar comprensible persona familiarizado sistema local resultar oscuro futuro estudiant empleador socava valor programa allá frontera nacional</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mind es una organización benéfica independiente estos grupos representan importantes fuentes de información y apoyo para los usuarios de los servicios muchas organizaciones también presentan sus propias investigaciones por ejemplo encuestas sobre las necesidades o el acceso de los usuarios de los servicios algunas organizaciones no gubernamentales también brindan servicios de salud mental desde servicios de grupos de apoyo hasta servicios de atención más regulares para personas que padecen enfermedades mentales o sus cuidadores o familias el concordato de atención de crisis lanzado en febrero de 2014 detalla cómo el gobierno planea mejorar el apoyo de emergencia para las personas en crisis de salud mental en todo el país</t>
+          <t>mind organización benéfico independiente grupo representar importante fuente información apoyo usuario servicio organización presentar investigación ejemplo encuesta necesidad acceso usuario servicio organización gubernamental brindar servicio salud mental servicio grupo apoyo servicio atención regular persona padecer enfermedad mental cuidador familia concordato atención crisis lanzado febrero 2014 detallar gobierno planear mejorar apoyo emergenciar persona crisis salud mental país</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>las rúbricas pretenden ayudar a los profesores a ser más sistemáticos e intencionados en la enseñanza y el aprendizaje de la creatividad yo el pensamiento crítico los ejemplos de planes de clase proporcionados a los profesores del proyecto incluían un mapa de los diferentes pasos de la clase en relación con las subhabilidades de las rúbricas conceptuales se pidió a los profesores que hicieran lo mismo con sus propios planes de clase al menos con los que presentaran al coordinador local del proyecto antes de su posible transmisión a la ocde la construcción de un lenguaje profesional en torno a la creatividad y el pensamiento crítico requiere en realidad algo más que buenas definiciones y descriptores de las destrezas a desarrollar</t>
+          <t>rúbrica pretender ayudar profesor sistemático intencionado enseñanza aprendizaje creatividad pensamiento crítico ejemplo plan clase proporcionado profesor proyecto incluir mapa paso clase relación subhabilidad rúbrica conceptual pedir profesor hacer plan clase presentar coordinador local proyecto transmisión ocde construcción lenguaje profesional torno creatividad pensamiento crítico requerir realidad definición descriptor destreza desarrollar</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>la responsabilidad de la educación secundaria vocacional se comparte entre dos ministerios hay múltiples ofertas de cursos y la provisión está dominada por el sector privado esto dificulta las generalizaciones estadísticas y el análisis sectorial sin embargo de acuerdo con las tendencias mundiales el acceso a la educación secundaria superior profesional se ve afectado por la demanda de sus programas y el nivel de recursos disponibles la educación vocacional es típicamente percibida por la sociedad indonesia como algo para los fracasos académicos y las clases más pobres</t>
+          <t>responsabilidad educación secundario vocacional compartir ministerio múltiple oferta curso provisión dominado sector privado dificulta generalización estadístico análisis sectorial tendencia mundial acceso educación secundario superior profesional ver afectado demanda programa nivel recurso disponible educación vocacional típicamente percibido sociedad indonesio fracaso académico clase pobre</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>en varios estados y territorios de australia bélgica comunidad francesa en varias provincias y territorios de canadá chile evaluación del desempeño y nueva zelanda por ejemplo queda a discreción de los líderes y evaluadores escolares seleccionar los instrumentos y herramientas para recabar información dependiendo de los aspectos y criterios de evaluación elegidos yo de los objetivos de desempeño definidos individualmente los instrumentos y las fuentes de información utilizados para reunir pruebas sobre el desempeño de un líder escolar también pueden diferir entre los puestos de liderazgo los directores escolares y los subdirectores escolares aunque los costos y esfuerzos requeridos deben sopesarse con los beneficios de usar múltiples fuentes de información es esencial reunir una cantidad factible de información precisa válida confiable y útil glasman y glasman 2010 estas reuniones entre evaluador y evaluado pueden basarse simplemente en una lista de comprobación que examine si se ha demostrado un aspecto de la evaluación lashway 2003</t>
+          <t>territorio australia bélgico comunidad francés provincia territorio canadá chile evaluación desempeño zelando ejemplo quedar discreción líder evaluador escolar seleccionar instrumento herramienta recabar información depender aspecto criterio evaluación elegido objetivo desempeño definido individualmente instrumento fuente información utilizado reunir prueba desempeño líder escolar diferir puesto liderazgo director escolar subdirector escolar costo esfuerzo requerido sopesar él beneficio múltiple fuente información esencial reunir cantidad factible información preciso válido confiable útil glasman glasman 2010 reunión evaluador evaluado basar él simplemente listo comprobación examine demostrado aspecto evaluación lashway 2003</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>la formación en el lugar de trabajo también debería estar sujeta a control de calidad en forma de arreglos contractuales inspecciones y autoevaluaciones invertir en una educación infantil temprana de alta calidad y en la escolarización inicial en particular para los niños de entornos socioeconómicamente desfavorecidos puede ser una estrategia eficaz para garantizar que los niños comiencen con fuerza sus carreras educativas y que las primeras habilidades generen futuras habilidades más adelante en la vida el apoyo financiero dirigido a estudiantes y escuelas desfavorecidos puede mejorar el desarrollo de habilidades los gobiernos pueden diseñar incentivos financieros y políticas fiscales favorables que alienten a las personas y los empleadores a invertir en educación y formación posobligatoria se puede alentar a las personas a asumir una mayor parte de la carga financiera de la educación terciaria mientras que a las personas desfavorecidas se les debe garantizar el acceso a las oportunidades educativas a través de subvenciones y préstamos si es necesario realizar recortes en el gasto público estos deben basarse en la relación costobeneficio a largo plazo de las inversiones públicas alternativas</t>
+          <t>formación lugar trabajo deber sujeta control calidad formar arreglo contractual inspección autoevaluación invertir educación infantil temprano alto calidad escolarización inicial particular niño entorno socioeconómicamente desfavorecido estrategia eficaz garantizar niño comiencir fuerza carrera educativo primero habilidad generar futuro habilidad vido apoyo financiero dirigido estudiante escuela desfavorecido mejorar desarrollo habilidades gobierno diseñar incentivo financiero política fiscal favorable alentar persona empleador invertir educación formación posobligatorio alentar persona asumir carga financiero educación terciario persona desfavorecido garantizar acceso oportunidad educativo subvención préstamo necesario recorte gasto público basar él relación costobeneficio plazo inversión público alternativo</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>estos adultos necesitan una formación ajustada a sus intereses y a sus competencias previamente adquiridas por último las empresas competitivas que desean mejorar las competencias de su personal representan otro grupo de usuarios muy exigente un rápido vistazo a las cifras muestra que los centros de fp i también ofrecen formación a grupos no tradicionales la tabla 86 recoge estadísticas oficiales del sapte que podrían no incluir la formación no reglada que se imparte en algunos centros de fp y algunas asociaciones poco frecuentes con autoridades locales y ong en el marco de proyectos patrocinados por donantes internacionales</t>
+          <t>adulto necesitar formación ajustado interés competencia previamente adquirido empresa competitivo desear mejorar competencia personal representar grupo usuario exigente rápido vistazo cifra mostrar centro fp i ofrecer formación grupo tradicional tabla 86 recoger estadística oficial sapte incluir formación reglado imparte centro fp asociación frecuente autoridad local ong marco proyecto patrocinado donante internacional</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>los grupos exitosos lograron reducir las tasas de pobreza de más del 80 en la década de 1980 a cerca del 44 en 2007 mientras que para los países rezagados la tasa de pobreza total se ha mantenido muy por encima del 70 durante todo el período tanto la tasa de incidencia como el número de pobres en este grupo de países se redujeron durante este período su participación aumentó de aproximadamente el 13 al 18 de la población total entre principios de la década de 1980 y 2007 mientras que el porcentaje de su población que vive con menos de 2 al día aumentó de aproximadamente el 16 a más del 30</t>
+          <t>grupo exitoso lograr reducir tasa pobreza 80 década 1980 cerca 44 2007 país rezagado tasa pobrezar mantenido 70 período tasar incidencia número pobre grupo país reducir período participación aumentar 13 18 población principio décado 1980 2007 porcentaje población vivir 2 aumentar 16 30</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,37 +878,37 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>jane chapman asesora independiente de riesgos del tavistock and portman nhs trust llevó a cabo una exhaustiva evaluación de la gobernanza y los riesgos de big white wall la evaluación mostró que bww conlleva un riesgo global bajo para los usuarios dadas las salvaguardias existentes esto podría indicar las diferentes direcciones que están tomando los países en el desarrollo y las prioridades de sus sistemas de salud mental en noruega donde se percibe una escasez de psicólogos y en particular de enfermeros y psicólogos en las escuelas el ministerio de sanidad y servicios sanitarios ha financiado directamente un aumento del número de psicólogos que trabajan en los municipios</t>
+          <t>jane chapman asesora independiente riesgo tavistock and portmar nhs trust llevar cabo exhaustivo evaluación gobernanza riesgo big white wall evaluación mostrar bww conllevar riesgo global usuario dado salvaguardia existente indicar dirección tomar país desarrollo prioridad sistema salud mental noruego percibir escasez psicólogo particular enfermero psicólogo escuelas ministerio sanidad servicio sanitario financiado directamente aumento número psicólogo trabajar municipio</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>el reto futuro del sns es ser capaz de mantener la motivación de su plantilla y contener e invertir la fuga de profesionales sin embargo no es probable que el escaso número de enfermeros aumente en un futuro próximo mientras que el número de licenciados en medicina ha aumentado de forma constante a lo largo del tiempo el número de licenciados en enfermería ha ido disminuyendo desde 2009 en particular las mejoras sanitarias y el aumento de la actividad en el sns se obtuvieron sin recursos adicionales lo que indica tanto una mejora de la relación calidad-precio como la existencia de grandes ineficiencias en el sistema</t>
+          <t>reto futuro sns capaz mantener motivación plantillo contener invertir fuga profesional probable escaso número enfermero aumentar futuro número licenciado medicinar aumentado forma constante tiempo número licenciado enfermeer ido disminuir 2009 particular mejora sanitario aumento actividad sns obtener recurso adicional indicar mejora relación calidad-precio existencia ineficiencia sistema</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>otras reformas también podrían mejorar a medio plazo el acceso a un seguro complementario para los hogares con bajos ingresos y su salud cnamts 2016a sobre todo fomentando el uso de los datos administrativos existentes sobre ingresos y otros gastos sociales para determinar y verificar el acceso a los vales del aec de hecho experimentos anteriores han demostrado que los hogares que reúnen los requisitos en su mayoría desempleados de larga duración y jubilados pueden ser difíciles de alcanzar mediante campañas de información guthmuller et al la sostenibilidad del régimen de aec podría mejorarse en parte revisando las condiciones de elegibilidad cour des comptes 2015</t>
+          <t>reforma mejorar plazo acceso seguro complementario hogar bajo ingreso salud cnamts 2016a fomentar dato administrativo existente ingreso gasto social determinar verificar acceso val aec experimento anterior demostrado hogar reúnir requisito mayoría desempleado largo duración jubilado difícil alcanzar campaña información guthmuller et sostenibilidad régimen aec mejorar él revisar condición elegibilidad cour des compt 2015</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>la compensación por enfermedad se otorga a adultos de 30 años o más sobre la misma base excepto que son beneficios por incapacidad permanente a diferencia del beneficio temporal de tres años como en la compensación por actividad según el informe nacional de salud pública de suecia de 2012 los trastornos mentales incluidas afecciones como la depresión la esquizofrenia el síndrome de fatiga crónica las discapacidades mentales los trastornos de la personalidad y el abuso de drogas combinados con los trastornos musculoesqueléticos representan el 76 de todas las nuevas solicitudes de discapacidad entre mujeres y el 65 de reclamos similares entre hombres en 2006 junta nacional de salud y bienestar 2012 los problemas más comúnmente diagnosticados entre estas condiciones son la depresión los trastornos de adaptación las reacciones al estrés y los trastornos de ansiedad</t>
+          <t>compensación enfermedad otorgar adulto 30 año base beneficio incapacidad permanente diferencia beneficio temporal año compensación actividad informe nacional salud público suecia 2012 trastorno mental incluido afección depresión esquizofrenia síndrome fatiga crónico discapacidad mental trastorno personalidad abuso droga combinado trastorno musculoesquelético representar 76 solicitud discapacidad mujer 65 reclamo similar hombre 2006 junta nacional salud bienestar 2012 problema comúnmente diagnosticado condición depresión trastorno adaptación reacción estrés trastorno ansiedad</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>un ejemplo de la capacidad del sistema para trabajar en la mejora de la eficiencia es el proceso de consolidación de escuelas este proceso fue liderado de manera descentralizada por municipios individuales los municipios han buscado consolidar sus sistemas escolares para aumentar el rendimiento de los estudiantes al mejorar el entorno de aprendizaje y reducir los gastos en la folkeskole logrando economías de escala a través de escuelas de mayor tamaño el sistema nacional reduce las diferencias financieras entre municipios</t>
+          <t>ejemplo capacidad sistema trabajar mejorar eficiencia proceso consolidación escuela proceso liderado descentralizado municipio individual municipio buscado consolidar sistema escolar aumentar rendimiento estudiant mejorar entorno aprendizaje reducir gasto folkesko él lograr economía escala escuela tamaño sistema nacional reducir diferencia financiero municipio</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>los ahorros solo fueron estadísticamente significativos para los pacientes del grupo mejorado cuyo nivel inicial de hbalc era del 10 por ciento o más la medición de hbalc es una forma de medir los niveles de glucosa en sangre un indicador importante para los diabéticos para los no diabéticos una lectura normal estaría en el rango de 40 a 59 por ciento para las personas con diabetes un nivel de hbalc de 65 por ciento se considera un buen control sin embargo este estudio no tuvo en cuenta el costo de la intervención y por lo tanto no se pudo evaluar la rentabilidad general en una línea similar testa et al mun-roe et al</t>
+          <t>ahorro estadísticamente significativo paciente grupo mejorado cuyo nivel inicial hbalc 10 ciento medición hbalc forma medir nivel glucós sangre indicador importante diabético diabético lectura normal estar ranguir 40 59 ciento persona diabet nivel hbalc 65 ciento control estudio costo intervención evaluar rentabilidad general línea similar testa et mun-roe et</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>el proceso podría ser más eficaz si el rendimiento de los nuevos profesores fuera evaluado conjuntamente por el director de la escuela y una autoridad externa cualificada como el supervisor escolar o el asesor pedagógico regional una vez establecidas unas condiciones claras para la evaluación del periodo de prueba costa rica podría introducir el requisito de que todos los profesores deban completar el periodo de prueba de forma satisfactoria antes de ser confirmados en un puesto permanente en la mayoría de los países el periodo de prueba suele ir acompañado de un programa estructurado de iniciación</t>
+          <t>proceso eficaz rendimiento profesor evaluado conjuntamente director escuela autoridad externo cualificado supervisor escolar asesor pedagógico regional establecido condición claro evaluación periodo probar costa rico introducir requisito profesor der completar periodo probar forma satisfactorio confirmado puesto permanente mayoría país periodo prueba soler acompañado programa estructurado iniciación</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>la evaluación más reciente registró una tasa de satisfacción del 94 entre los participantes el 41 continuó con su educación el 15 encontró empleo a tiempo parcial y el 9 a tiempo completo dobrovoljc et al financiado por una de las 36 oficinas nacionales de políticas de empleo para personas con discapacidades en las subvenciones oportunidades para jóvenes yo del departamento de trabajo dol los investigadores de salud pública trabajaron con el centro yo de eastside de baltimore para agregar una intervención de salud mental al programa de capacitación laboral del centro yo la intervención de salud mental incluyó tres componentes principales un médico de salud mental en el lugar un plan de estudios de prevención de la depresión entre compañeros y sesiones de capacitación en salud mental para el personal del centro de empleo que no tenía educación formal en salud mental diferencias en los síntomas depresivos o estrategias de afrontamiento después de que los solicitantes de empleo completaron el programa tandon et al</t>
+          <t>evaluación reciente registrar tasa satisfacción 94 participante 41 continuar educación 15 encontrar empleo tiempo parcial 9 tiempo completo dobrovoljc et financiado 36 oficina nacional política empleo persona discapacidad subvención oportunidad joven departamento trabajo dol investigador salud público trabajar centro eastsidir baltimore agregar intervención salud mental programa capacitación laboral centro intervención salud mental incluir componente principal médico salud mental lugar plan estudio prevención depresión compañero sesión capacitación salud mental personal centro empleo educación formal salud mental diferencia síntoma depresivo estrategia afrontamiento solicitant empleo completar programa tandon et</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>en otras palabras gobernar mediante leyes puede interpretarse fácilmente como una falta de confianza en los profesores lo que a su vez puede llevarles a sentirse controlados lo que podría perjudicar su creatividad motivación y autoestima por otra parte si la calidad de la enseñanza no es suficientemente buena y los padres y los alumnos no tienen la sensación de que los profesores cumplen la ley de educación la confianza del público en las escuelas puede disminuir el camino a seguir parece por tanto continuar apoyando a los profesores que parecen haber asumido los cuatro principios de la ley de educación y apoyar a las buenas escuelas y profesores como ejemplo para otras escuelas</t>
+          <t>palabra gobernar ley interpretar él fácilmente faltar confianza profesor llevarl sentir él controlado perjudicar creatividad motivación autoestimo calidad enseñanzo suficientemente padre alumno sensación profesor cumplir ley educación confianza público escuela disminuir camino seguir continuar apoyar profesor parecer asumir principio ley educación apoyar escuela profesor ejemplo escuela</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>estas estadísticas también formarán la base de los esfuerzos para mejorar la calidad de la atención médica en turquía que ya han estado creciendo en los últimos años muchos sistemas de salud de la ocde separan definitivamente las responsabilidades de administrar y monitorear los servicios de atención médica y la creación de 4 agencias afiliadas bajo el ministerio es una señal de que turquía está considerando seriamente los beneficios de una mayor devolución de responsabilidades para el sistema de salud en el futuro turquía podría considerar poner una mayor distancia entre funciones como la acreditación y la evaluación de tecnologías sanitarias y el ministerio de salud central especialmente cuando las actividades de gobernanza de la calidad se aplican tanto a los servicios de salud públicos como a los servicios de salud privados</t>
+          <t>estadística formar base esfuerzo mejorar calidad atención médico turquir crecer año sistema salud ocde separar definitivamente responsabilidad administrar monitorear servicio atención médico creación 4 agencia afiliada ministerio señal turquir considerar seriamente beneficio devolución responsabilidad sistema salud futuro turquir considerar distancia función acreditación evaluación tecnología sanitario ministerio salud central especialmente actividad gobernanza calidad aplicar servicio salud público servicio salud privado</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>en 2014 una media del 77 de los niños de 3 años estaban matriculados en programas de desarrollo educativo para la primera infancia o en educación preescolar en los países de la ue22 en comparación con la media de la ocde del 71 entre 2005 y 2014 la matrícula de niños de 3 años en educación preescolar aumentó del 69 al 76 y la matrícula de niños de 4 años aumentó del 84 al 89 en promedio entre los países con datos para ambos años en bélgica dinamarca francia alemania italia luxemburgo los países bajos españa y el reino unido al menos el 95 de los niños de 4 años están matriculados en educación infantil</t>
+          <t>2014 medio 77 niño 3 año matriculado programa desarrollo educativo infancia educación preescolar país ue22 comparación medio ocde 71 2005 2014 matrícula niño 3 año educación preescolar aumentar 69 76 matrícula niño 4 año aumentar 84 89 promedio país dato año bélgica dinamarca francia alemania italia luxemburgo país bajo españa reino unido 95 niño 4 año matriculado educación infantil</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>el período de formación también permitió a los docentes y trabajadores discutir temas relacionados con la formación laboral de los estudiantes y mejorar los planes de formación y los métodos de evaluación los participantes mejoraron sus habilidades y autoestima y ​​difundieron conocimientos a otros colegas este ejercicio fue evaluado por la oficina de información económica de finlandia como una de las mejores formas de desarrollar la profesionalidad de los docentes</t>
+          <t>período formación permitir docente trabajador discutir tema relacionado formación laboral estudiante mejorar plan formación método evaluación participant mejorar habilidad autoestimo ​​difundar conocimiento colega ejercicio evaluado oficín información económico finlandia mejor forma desarrollar profesionalidad docente</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>desde tiempos prehistóricos los residentes del ártico han desarrollado habilidades y conocimientos que les permiten sobrevivir y prosperar en condiciones adversas se ha observado que los norteños tienen un buen conocimiento de los asuntos importantes para su sustento y poseen un conocimiento único y diversificado sobre cómo garantizar su bienestar megatrends 2011 al mismo tiempo la capacidad de las sociedades árticas para beneficiarse del conocimiento codificado estandarizado y la educación formal ha sido bastante limitada</t>
+          <t>tiempo prehistórico residente ártico desarrollado habilidades conocimiento permitir sobrevivir prosperar condición adverso observado norteño conocimiento asunto importante sustento poseer conocimiento único diversificado garantizar bienestar megatrends 2011 tiempo capacidad sociedad ártico beneficiar él conocimiento codificado estandarizado educación formal limitado</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>por lo tanto es comprensible que el enfoque de línea de pobreza de un dólar por día se haya convertido en el dominante sin embargo tiene debilidades significativas y hay varios tipos de problemas relacionados con su uso que necesitan ser revisados dependiendo de cómo se determine la constitución de la canasta y lo que se incluya la línea de pobreza puede reducirse a lo que muchos pueden considerar un umbral demasiado bajo o elevarse a lo que otros podrían cuestionar como demasiado generoso</t>
+          <t>comprensible enfoque líneo pobreza dólar convertido dominante debilidad significativo tipo problema relacionado necesitar revisado depender determinar constitución canasta incluir línea pobreza reducir él considerar umbral elevar él cuestionar generoso</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>si bien persisten los desafíos para brindar resultados de aprendizaje equitativos para los niños y jóvenes de las comunidades indígenas y mejorar los logros en los niveles más altos del sistema educativo chile ha logrado la equidad en el acceso a la educación básica además no existen diferencias significativas en la finalización de la primaria entre niños indígenas y no indígenas iniciativas específicas como una beca específica beca indfgena basica y beca indfgena media han tenido un impacto significativo en el aumento de la asistencia y la reducción de la deserción entre los beneficiarios además el reconocimiento y promoción de las lenguas y culturas indígenas en el sistema educativo se beneficia con la implementación del programa de educación intercultural bilingüe peib dirigido a las escuelas que atienden a estudiantes indígenas</t>
+          <t>persistir desafío brindar resultado aprendizaje equitativo niño joven comunidad indígena mejorar logro nivel alto sistema educativo chile logrado equidad acceso educación básico diferencia significativo finalización primario niño indígena indígena iniciativa específico beca específico beca indfgena basico beca indfgena medio impacto significativo aumento asistencia reducción deserción beneficiario reconocimiento promoción lengua cultura indígena sistema educativo beneficiar implementación programa educación intercultural bilingüe peib dirigido escuela atender estudiante indígena</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,17 +1028,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>los niños pequeños tienen más probabilidades de estar en situación de riesgo porque sus padres también suelen ser jóvenes con ingresos relativamente bajos o porque sus madres no tienen trabajo bradbury y jantii 2001 las estrategias para aliviar la pobreza infantil varían de un país a otro y las políticas tienden a promover el empleo en particular a través de la reforma de la asistencia social de los últimos años o a proporcionar prestaciones generosas para redistribuir los ingresos entre los pobres conseguir que las familias monoparentales trabajen ha sido un objetivo central de la política en varios países en los últimos años con políticas de reforma de la asistencia social en australia canadá nueva zelanda el reino unido y los estados unidos todas dirigidas al empleo entre las familias monoparentales</t>
+          <t>niño pequeño probabilidad situación riesgo padr soler joven ingreso relativamente bajo madre trabajar bradbury jantii 2001 estrategia aliviar pobreza infantil variar país política tender promover empleo particular reforma asistencia social año proporcionar prestación generoso redistribuir ingreso pobre familia monoparental trabajen objetivo central político país año política reforma asistencia social australia canadá zelanda reino unido unido dirigido empleo familia monoparental</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>borko et putnam 1995 en cuanto al impacto de la formación del profesorado en los resultados de los alumnos es posible subdividir esta cuestión en tres subpreguntas cuál es el impacto de la formación del profesorado en los resultados de los alumnos este estudio empírico se basa en datos de 50 encuestas estatales sobre políticas extraídos de la encuesta schools and staffing de 1990-1993 y de la evaluación nacional del progreso educativo naep muestra pruebas de que las políticas utilizadas en los distintos estados americanos para promover la calidad del profesorado especialmente las relativas a los requisitos y la certificación de la formación del profesorado así como a la formación continua pueden estar positivamente relacionadas con mejores resultados de los alumnos</t>
+          <t>borko et putnam 1995 impacto formación profesorado resultado alumno subdividir cuestión subpregunta impacto formación profesorado resultado alumno estudio empírico basar dato 50 encuesta estatal política extraído encuesta schools and staffing 1990-1993 evaluación nacional progreso educativo naep mostrar prueba política utilizado distinto americano promover calidad profesorado especialmente relativo requisito certificación formación profesorado formación continuo positivamente relacionado mejor resultado alumno</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,17 +1048,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>para las familias un trabajo de salario mínimo generalmente no es suficiente para escapar de la pobreza relativa en el umbral del 50 sin embargo los beneficios en el trabajo yo las tasas de eliminación gradual de beneficios para familias con niños como en australia irlanda y el reino unido pueden proporcionar un aumento significativo de los ingresos los trabajadores monoparentales a tiempo completo con salario mínimo en estos países obtienen ingresos netos iguales o superiores al 60 de los ingresos medios</t>
+          <t>familia trabajo salario mínimo generalmente suficiente escapar pobreza relativo umbral 50 beneficio trabajar tasa eliminación gradual beneficio familia niño australia irlanda reino unido proporcionar aumento significativo ingreso trabajador monoparental tiempo completo salario mínimo país obtener ingreso neto igual superior 60 ingreso medio</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>más precisamente se está prestando especial atención a la formación inicial entre otros aspectos los futuros maestros en estos niveles deben obtener títulos de licenciatura de cuatro años lo que significa una extensión de un año en la formación docente no obstante las universidades españolas deberán elaborar los programas de formación inicial del profesorado de acuerdo con las directrices marcadas por el gobierno español</t>
+          <t>precisamente prestar especial atención formación inicial aspecto futuro maestro nivel obtener título licenciaturo año significar extensión año formación docente obstante universidad español deber elaborar programa formación inicial profesorado directriz marcado gobierno español</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>esta inmensa disminución y el liderazgo de la región a nivel mundial se han debido principalmente a la reducción de la pobreza en china e india ya que solo estos dos países han sacado a 650 millones de personas de la pobreza extrema la incidencia más alta de pobreza extrema se registra en asia meridional y sudoccidental 287 en 2010 mientras que la más baja se registra en asia septentrional y central 10 en 2011 cabe señalar que desde 1990 asia oriental y nororiental y asia sudoriental han registrado las reducciones absolutas más rápidas de las tasas de pobreza en comparación con las de otras subregiones</t>
+          <t>inmenso disminución liderazgo región nivel mundial principalmente reducción pobreza chino indio país sacado 650 millón persona pobrezar extremo incidencia alto pobreza extremo registra asia meridional sudoccidental 287 2010 bajo registrar asia septentrional central 10 2011 caber señalar 1990 asia oriental nororiental asia sudoriental registrado reducción absoluto rápido tasa pobrezar comparación subregión</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,17 +1078,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>cuanto más temprana sea la privación y más larga sea su duración mayor será el impacto potencial en el niño la diferencia entre los dos se ilustra en el siguiente diagrama el hogar con los ingresos más bajos en la calle vive en el número 1 el segundo hogar más pobre vive en el número 2 y así sucesivamente hasta el hogar más rico en el número 15 en el ejemplo que se da aquí esto llega a 60000 en este ejemplo el ingreso medio es de 40000 el ingreso de la casa no imagine por ejemplo que las dos personas más ricas de la calle viviendo en las casas no</t>
+          <t>temprano privación largo duración impacto potencial niño diferenciar ilustrar diagrama hogar ingreso bajo calle vivir número 1 hogar pobre vivir número 2 sucesivamente hogar rico número 15 ejemplo llegar 60000 ejemplo ingreso 40000 ingreso casa imagine ejemplo persona rico calle vivir casa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>southern med review 42 69 análisis de series de tiempo de la relación entre desempleo y mortalidad una encuesta de críticas econométricas y réplicas de los estudios de brenner la economía afecta el uso de sustancias en los adolescentes reichman ne 2013 ciclos económicos hipertensión y enfermedades cardiovasculares evidencia del colapso económico de islandia</t>
+          <t>southern med review 42 69 análisis series tiempo relación desempleo mortalidad encuesto crítica econométrica réplica estudio brenner economía afectar sustancia adolescente reichmar ne 2013 ciclo económico hipertensión enfermedad cardiovascular evidenciar colapso económico islandio</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,37 +1098,37 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>como resultado el número de camas se sitúa ahora en torno a la media de la ue mientras que la duración media de la estancia está muy por debajo de la media de 68 días en comparación con los 8 días 2015 esto junto con el hecho de que todavía hay muchos hospitales regionales más pequeños sugiere que hay espacio para racionalizar la red hospitalaria para mejorar la eficiencia a pesar de la oposición pública que esto probablemente genere ver sección 52 la cirugía de cataratas ha sido un éxito particular con uno de los porcentajes más altos de casos ambulatorios en la ue 2015 las amigdalectomías por el contrario todavía se realizan exclusivamente en entornos hospitalarios figura 14</t>
+          <t>resultado número cama situar torno medio ue duración medio estancia medio 68 comparación 8 2015 hospital regional pequeño sugerir espacio racionalizar red hospitalario mejorar eficiencia oposición público probablemente genere sección 52 cirugía catarata éxito particular porcentaje alto caso ambulatorio ue 2015 amigdalectomía contrario realizar exclusivamente entorno hospitalario figurar 14</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>en los países ricos en petróleo los precios más altos de los combustibles tienen un efecto positivo en el nivel de vida como resultado del aumento de la demanda agregada en los países importadores de petróleo un aumento en el precio de los combustibles puede tener un efecto directo en la pobreza a través del consumo de energía y un efecto indirecto a través del aumento de los precios de los productos básicos cuya producción requiere energía el impacto sobre la pobreza de un aumento en el precio de la energía puede variar según las diferentes ubicaciones geográficas y dependiendo de si un hogar está conectado a la infraestructura de servicios públicos en los hogares urbanos la proporción del consumo de energía suele ser mayor en comparación con los hogares rurales9 si la infraestructura de servicios públicos es insuficiente es posible que los hogares ni siquiera estén conectados a fuentes centrales de energía</t>
+          <t>país rico petróleo precio alto combustible efecto positivo nivel vida resultado aumento demando agregado país importador petróleo aumento precio combustibles efecto directo pobreza consumo energía efecto indirecto aumento precio producto básico cuyo producción requerir energía impacto pobrezar aumento precio energir variar ubicación geográfico depender hogar conectar infraestructura servicio público hogar urbano proporción consumo energía soler comparación hogar rurales9 infraestructurar servicio público insuficiente hogar siquiera estar conectado fuente central energío</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>por lo general estos pagos por resultados se centran en resultados intermedios por ejemplo presión arterial o nivel de glucosa en sangre controlados y solo en raras ocasiones en medidas de resultados como las tasas de supervivencia en el sector de pacientes hospitalizados la participación de los ingresos de los proveedores es mucho menor con frecuencia alrededor del 01 de los presupuestos hospitalarios y nunca superando el 4 milstein y schreyogg 2015 si bien se puede esperar que los programas p4p incluyan al menos algunas medidas de desempeño o resultados la mayoría si no todos los programas p4p también incluyen pagos ex post más simples vinculados a la prestación de servicios por ejemplo finalización de ciertos datos y registro establecimiento del plan de atención</t>
+          <t>general pago resultado centrar resultado intermedio ejemplo presión arterial nivel glucós sangre controlado rara ocasión medida resultado tasa supervivencio sector paciente hospitalizado participación ingreso proveedor menor frecuencia 01 presupuesto hospitalario superar 4 milstein schreyogg 2015 esperar programa p4p incluir medida desempeño resultado mayoriar programa p4p incluir pago ex post simple vinculado prestación servicio ejemplo finalización dato registro establecimiento plan atención</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>en segundo lugar la enseñanza para el examen enfatiza la memorización y un enfoque más pasivo del aprendizaje ya que los maestros pasan más tiempo desarrollando estrategias para tomar exámenes en lugar de cultivar las habilidades de resolución de problemas de los estudiantes kellaghan et al al involucrar a los maestros en el desarrollo e implementación de pruebas estandarizadas y capacitar a los maestros sobre cómo usar y analizar de manera efectiva los resultados de las pruebas puede haber menos riesgo de enseñar para la prueba sin embargo los incentivos adjuntos a los resultados de las pruebas deben construirse cuidadosamente para evitar motivar comportamientos estratégicos como enseñar para la prueba la investigación es mezclados en cuanto a cómo promover de manera efectiva comportamientos positivos como resultado de incentivos mientras se reducen los comportamientos negativos</t>
+          <t>lugar enseñanza examen enfatiza memorización enfoque pasivo aprendizaje maestro pasar tiempo desarrollar estrategia tomar examen lugar cultivar habilidad resolución problema estudiant kellaghan et involucrar maestro desarrollo implementación prueba estandarizado capacitar maestro analizar efectivo resultado prueba riesgo enseñar prueba incentivo adjunto resultado prueba construir él cuidadosamente evitar motivar comportamiento estratégico enseñar prueba investigación mezclado promover efectivo comportamiento positivo resultado incentivo reducir comportamiento negativo</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,27 +1138,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>la variación entre las áreas locales australianas fue evidente en todas las intervenciones y condiciones también hubo una amplia variación en comparación con otros países por ejemplo las tasas de ingreso hospitalario no quirúrgico fueron el doble en australia alrededor de 12 000 por 100 000 habitantes mayores de 15 años que en españa portugal y canadá donde estuvieron por debajo de 6 000</t>
+          <t>variación área local australiano evidente intervención condición ampliar variación comparación país ejemplo tasa ingreso hospitalario quirúrgico doble australia 12 000 100 000 habitante mayor 15 año españa portugal canadá estar 6 000</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>los créditos presupuestarios se controlan por ocho áreas programáticas administración servicios sanitarios de distrito servicios sanitarios de urgencia servicios hospitalarios provinciales servicios hospitalarios centrales ciencias de la salud y formación servicios de apoyo a la atención sanitaria gestión de instalaciones sanitarias y luego por partidas las clasificaciones económicas generales para pagos corrientes son remuneración de empleados bienes y servicios intereses y alquiler de terrenos también hay un seguimiento electrónico más frecuente mensual y trimestral por parte del tesoro nacional para comprobar que el dinero se ha gastado según lo programado el objetivo de estas reuniones es comprobar que los fondos se han recibido a tiempo y se han gastado según lo previsto en el presupuesto</t>
+          <t>crédito presupuestario controlar área programático administración servicio sanitario distrito servicio sanitario urgencia servicio hospitalario provincial servicio hospitalario central ciencia salud formación servicio apoyo atención sanitario gestión instalación sanitario partida clasificación económico general pago corriente remuneración empleado bién servicio interés alquiler terreno seguimiento electrónico frecuente mensual trimestral tesoro nacional comprobar dinero gastado programado objetivo reunión comprobar fondo recibido tiempo gastado previsto presupuesto</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>existen grandes desigualdades en la prevalencia de estas enfermedades crónicas según el nivel educativo sin embargo se observan diferencias en la autovaloración de la salud por estatus socioeconómico el 82 de las personas del quintil de ingresos más altos declaran tener buena salud frente al 68 de las del quintil más bajo figura 4 sin embargo esta diferencia es menor que en la mayoría de los demás países de la ue según las estimaciones más del 30 de la carga global de morbilidad en dinamarca en 2015 podría atribuirse a factores de riesgo comportamentales como el tabaquismo el consumo de alcohol la dieta y la inactividad física siendo el tabaquismo y los riesgos metabólicos por ejemplo la obesidad y el colesterol alto los que más contribuyen ihme</t>
+          <t>desigualdad prevalenciar enfermedad crónico nivel educativo observar diferencia autovaloración salud estatus socioeconómico 82 persona quintil ingreso alto declarar salud frente 68 quintil figurar 4 diferencia menor mayoría país ue estimación 30 carga global morbilidad dinamarco 2015 atribuir él factor riesgo comportamental tabaquismo consumo alcohol dietar inactividad físico tabaquismo riesgo metabólico ejemplo obesidad colesterol alto contribuir ihmir</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>también es posible que un titular de maestría tome un año de estudios pedagógicos en la facultad de educación y obtenga una calificación formal de maestro no solo se espera que los candidatos a maestros se conviertan en expertos en el conocimiento del contenido pedagógico sino que también deben escribir una disertación basada en la investigación como requisito final para obtener el título de maestría los maestros de grado superior se especializan en un área académica de su elección los maestros de grado primario se especializan en ciencias de la educación</t>
+          <t>titular maester tomar año estudio pedagógico facultad educación obtener calificación formal maestro esperar candidato maestro convertir experto conocimiento contenido pedagógico escribir disertación basado investigación requisito obtener título maester maestro grado superior especializar área académico elección maestro grado primario especializar ciencias educación</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>la agrupación por capacidades en una o unas pocas asignaturas es la forma más flexible de selección de hecho en los sistemas con más escuelas académicamente selectivas el impacto del estatus socioeconómico de los estudiantes y las escuelas en el rendimiento de los estudiantes es más fuerte ocde 2013a tabla iv los resultados de pisa también muestran que en la mayoría de los países de la ocde el rendimiento de los alumnos es significativamente inferior en los centros en los que la mayoría de los alumnos proceden de entornos desfavorecidos</t>
+          <t>agrupación capacidad asignatura forma flexible selección sistema escuela académicamente selectivo impacto estatus socioeconómico estudiante escuela rendimiento estudiant fuerte ocde 2013a tabla iv resultado pís mostrar mayoría país ocde rendimiento alumno significativamente inferior centro mayoría alumno proceder entorno desfavorecido</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>australia occidental por ejemplo ha implementado una revisión obligatoria de todas las muertes que ocurren en hospitales públicos y centros de salud privados que brindan servicios a pacientes públicos queensland lleva a cabo una auditoría de cabecera anual donde los médicos recopilan información sobre ciertos elementos de la atención para evaluar si se han cumplido los estándares esperados a nivel nacional el royal australasian college of surgeons establece como requisito para participar en el australian auditoría de mortalidad quirúrgica de zelanda como parte del programa de desarrollo profesional continuo de la universidad el acsqhc también realiza auditorías para evaluar el cumplimiento de los estándares la mayoría de los datos se centran en los volúmenes de atención y los recursos dentro del sistema los datos clínicos también se recopilan casi exclusivamente a través de registros específicos organizados por enfermedad dirigidos a grupos específicos de población o basados ​​en hospitales</t>
+          <t>australia occidental ejemplo implementado revisión obligatorio muerte ocurrir hospital público centro salud privado brindar servicio paciente público queensland cabo auditoriar cabecero anual médico recopilar información elemento atención evaluar cumplido estándar esperado nivel nacional royal australasian college of surgeons establecer requisito participar australian auditoría mortalidad quirúrgico zelando programa desarrollo profesional continuo universidad acsqhc realizar auditorías evaluar cumplimiento estándar mayoer dato centrar volumen atención recurso sistema dato clínico recopilar exclusivamente registro específico organizado enfermedad dirigido grupo específico población basado ​​en hospital</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>de hecho ese fue uno de los objetivos iniciales declarados del software cuando se desarrolló por primera vez incluye registros de salida detallados de todos los cálculos del software povcal incluidos los parámetros estimados de la curva de lorenz en cada caso llevar las nociones de pobreza de la ocde a este conjunto de datos en su mayoría no perteneciente a la ocde requiere extender el marco metodológico de povcal para derivar la medida de bienestar medio directamente de los parámetros de la curva de lorenz que estima povcal a partir de datos de distribución agrupados</t>
+          <t>objetivo inicial declarado software desarrollar incluir registro salido detallado cálculo software povcal incluido parámetro estimado curvo lorenz caso nociones pobreza ocde conjunto dato mayoría perteneciente ocde requerir extender marco metodológico povcal derivar medido bienestar directamente parámetro curvo lorenz estimar povcal dato distribución agrupado</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>el proyecto involucró a 15 clínicas primarias y 239 pacientes después de que los pacientes transmitieran información biométrica medida por ellos mismos al sistema de monitoreo a través de la puerta de enlace en una aplicación de teléfono inteligente los médicos revisaron los datos y dieron retroalimentación directamente a cada persona entre el inicio del proyecto y tres meses después para el grupo de prueba los niveles de hbalc disminuyeron en promedio 064 puntos porcentuales de 798 a 735 puntos porcentuales mientras que para el grupo de control la caída fue de 036 puntos porcentuales</t>
+          <t>proyecto involucró 15 clínica primario 239 paciente paciente transmitir información biométrico medido sistema monitoreo puerta enlacir aplicación teléfono inteligente médico revisar dato retroalimentación directamente persona inicio proyecto meses grupo probar nivele hbalc disminuir promedio 064 punto porcentual 798 735 punto porcentual grupo control caído 036 punto porcentual</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>casi todos los estudiantes continúan aprendiendo en la educación secundaria superior más allá de la educación obligatoria todo esto se logra en un sistema escolar que brinda amplia autonomía a los líderes escolares y maestros y se logra con niveles de gasto comparativamente modestos las disminuciones continuas en el tamaño de la población en edad escolar desafían a las autoridades a administrar de manera eficiente la red escolar de la nación la capacidad de la nación para reponer su fuerza laboral docente se ve obstaculizada por condiciones de empleo poco atractivas una visión poco clara de lo que son las buenas prácticas docentes y qué tipo de capacitación puede promover mejor la buena enseñanza</t>
+          <t>estudiante continuar aprender educación secundario superior allá educación obligatorio lograr sistema escolar brinda amplio autonomía líder escolar maestro lograr nivel gasto comparativamente modesto disminución continuo tamaño población edad escolar desafir autoridad administrar eficiente red escolar nación capacidad nación reponer fuerza laboral docente ver obstaculizado condición empleo atractivo visión claro práctica docente tipo capacitación promover enseñanza</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>de los siete países para los que se puede estimar la pobreza infantil el banco mundial clasifica a guyana como de ingreso medio-bajo a belice granada jamaica santa lucía y surinam como de ingreso medio-alto y a antigua y barbuda y trinidad y tobago como de ingreso alto sin embargo ni el ingreso nacional ni la pobreza monetaria explican completamente la variabilidad en los niveles de pobreza infantil por ejemplo aunque trinidad y tobago tiene el producto interno bruto per cápita más alto del caribe no tiene el nivel más bajo de pobreza infantil</t>
+          <t>país estimar pobreza infantil banco mundial clasifica guyana ingreso medio-bajo belice granada jamaica santa lucía surinam ingreso medio-alto antiguo barbudo trinidad tobago ingreso alto ingreso nacional pobreza monetario explicar completamente variabilidad nivel pobreza infantil ejemplo trinidad tobago producto interno bruto per cápita alto caribir nivel pobreza infantil</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>como se discutirá con más detalle más adelante el impacto directo de las exportaciones sobre la pobreza puede ser adicional a su efecto de reducción de la pobreza dependiendo del tipo de exportaciones a través de su impacto general de mejora del crecimiento la evidencia a nivel agregado presta apoyo definitivo a la proposición de que las exportaciones juegan un papel especial en la reducción de la pobreza ver figura 26 el gráfico indica que los índices de pobreza disminuyen cuando aumentan las exportaciones reales per cápita</t>
+          <t>discutir detalle impacto directo exportación pobreza adicional efecto reducción pobreza depender tipo exportación impacto general mejorar crecimiento evidenciar nivel agregado prestar apoyo definitivo proposición exportación jugar papel especial reducción pobreza figurar 26 gráfico indicar índice pobrezo disminuir aumentar exportación real per cápita</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>esto significa que las personashogares a los que les falta cierto bien o bien duradero se ven privados de ese bien o bien duradero solo si el motivo de la falta es que no pueden permitírselo véase por ejemplo de neubourg et al 2012a guio 2009 guio et al 2009 whelan and mattre 2012 nolan and whelan 2010 fusco et al 2011 y fusco et al 2013 permite identificar a los niños individuales sobre la base de si sufren pobreza monetaria carencias multidimensionales ambas o ninguna de ellas esto permite explorar la distribución subyacente del consumo o del ingreso y las relaciones entre privación privación múltiple y pobreza monetaria</t>
+          <t>significar personashogar falta duradero ver privado duradero motivo faltar permitírselo véar ejemplo neubourg et 2012a guio 2009 guio et 2009 whelan and mattre 2012 nolan and whelan 2010 fusco et 2011 fusco et 2013 permitir identificar niño individual base sufrir pobreza monetario carencia multidimensional ambos permitir explorar distribución subyacente consumo ingreso relación privación privación múltiple pobreza monetario</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>se espera que satisfaga las demandas de mano de obra de la economía brinde igualdad de oportunidades educativas para todos y promueva la unidad nacional en la sociedad plural de malasia la educación en malasia está supervisada por dos ministerios gubernamentales el ministerio de educación para asuntos hasta el nivel secundario y el ministerio de educación superior para la educación terciaria la principal legislación que rige la educación es la ley de educación de 1996</t>
+          <t>esperar satisfago demanda mano obra economío brinde igualdad oportunidad educativo promover unidad nacional sociedad plural malasia educación malasio supervisado ministerio gubernamental ministerio educación asuntos nivel secundario ministerio educación superior educación terciario principal legislación regir educación ley educación 1996</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,27 +1268,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>l instauration de droits de scolarite universels paraleloment a des prets remboursables en fonction des ressources pourrait aporter une solution ces problemes ce document de travail se rapporte a vetude economique de locde de la slovenie 2011 wwwoecdorgecoetudesslovenie el uso de dichos datos por parte de la ocde es sin perjuicio del estado de los altos del golán jerusalén este y los asentamientos israelíes en cisjordania según los términos del derecho internacional sin embargo el sistema enfrenta desafíos importantes</t>
+          <t>l instauration droits scolaritar universels paraleloment des pret remboursabl fonction des ressourz pourrait aporter une solution ces problem ce document travail rapporte vetude economique locde slovenie 2011 wwwoecdorgecoetudesslovenie dicho dato ocde perjuicio alto golán jerusalén asentamiento israelí cisjordaniar término derecho internacional sistema enfrentar desafío importante</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>kazajstán reaccionó rápidamente e introdujo un programa de obras públicas junto con actividades de capacitación y pasantías consulte la sección 4 anterior protegen los ingresos de los pobres y al mismo tiempo invierten en la construcción de infraestructura o la prestación de servicios sociales son especialmente apropiados en una situación de alto desempleo</t>
+          <t>kazajstán reaccionar rápidamente introducir programa obra público actividad capacitación pasantía consultar sección 4 protegen ingreso pobre tiempo invertir construcción infraestructuro prestación servicio social especialmente apropiado situación alto desempleo</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>abordamos los problemas del idioma de instrucción en las escuelas en términos de esfuerzos para conservar los idiomas heredados y asegurar que los estudiantes adquieran los idiomas nacionales de comercio y educación superior también abordamos la educación indígena enfocándonos en los esfuerzos para aumentar el control indígena sobre la educación y las nuevas formas de usar y transmitir ese conocimiento indígena y las formas de enseñar y aprender ya sea dentro o fuera de los sistemas escolares formales y por último analizamos los problemas de rendimiento de los estudiantes centrándonos especialmente en la brecha de género entre mujeres y hombres y en el bajo rendimiento continuo de los estudiantes indígenas en gran parte del norte</t>
+          <t>abordamos problema idiomir instrucción escuela término esfuerzo conservar idioma heredado asegurar estudiante adqueír idioma nacional comercio educación superior abordamos educación indígén enfocándono esfuerzo aumentar control indígén educación forma transmitir conocimiento indígenar forma enseñar aprender sistema escolar formal analizar problema rendimiento estudiant centrándono especialmente brecho género mujer hombr rendimiento continuo estudiante indígena norte</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>los enfoques comunitarios de la medicina y la educación médica también beneficiarían a la región y mejorarían los resultados de aprendizaje de los estudiantes los estudiantes de medicina pasarán mucho menos tiempo en los hospitales y mucho más tiempo en las comunidades los estudiantes aprenderán desde una etapa temprana a trabajar en equipos multidisciplinarios junto a enfermeras trabajadores sociales psicólogos y otros profesionales de la salud afines</t>
+          <t>enfoque comunitario medicín educación médico beneficiariar región mejorarir resultado aprendizaje estudiant estudiant medicín pasar tiempo hospita él tiempo comunidad estudiant aprender etapa temprano trabajar equipo multidisciplinario enfermera trabajador social psicólogo profesional salud afín</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>en finlandia por ejemplo la mayor parte de la variación de rendimiento observada se da dentro de los centros escolares y no entre ellos lo que indica que los centros tienen niveles de rendimiento similares y no seleccionan a los alumnos por su capacidad académica las diferencias en el entorno socioeconómico de los centros explican una pequeña proporción de las ya pequeñas diferencias de rendimiento entre centros lo que sugiere que hay poca segregación por motivos socioeconómicos las economías no miembros de la ocde se incluyen a efectos comparativos</t>
+          <t>finlandiar ejemplo variación rendimiento observado centro escolar indicar centro nivel rendimiento similar seleccionar alumno capacidad académico diferencia entorno socioeconómico centro explicar pequeño proporción pequeño diferencia rendimiento centro sugerir segregación motivo socioeconómico economía miembro ocde incluir efecto comparativo</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>en los países bajos los servicios de hospitalización también son gratuitos una vez que se alcanza el deducible general anual cuando se trata como un paciente privado en un hospital público o privado medicare cubre una proporción reducida de los costos y el costo restante a menudo lo paga un seguro de salud privado o de su propio bolsillo en 2011-2012 los pacientes públicos representaron el 51 de los ingresos hospitalarios y los pacientes cubiertos por seguros de salud privados el 39 4 instituto australiano de salud y bienestar 2013</t>
+          <t>país bajo servicio hospitalización gratuito alcanzar deducible general anual paciente privado hospital público privado medicare cubrir proporción reducido costo costo restante pagar seguro salud privado bolsillo 2011-2012 paciente público representar 51 ingreso hospitalario paciente cubierto seguro salud privado 39 4 instituto australiano salud bienestar 2013</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>durante ese periodo el gasto por alumno en los niveles primario secundario y postsecundario no terciario aumentó en la mayoría de los países de la ocde un 19 de media en toda la ocde con un incremento medio del gasto del 15 y un ligero descenso del número de alumnos 3 debido a que las cohortes que llegan a la edad escolar son más reducidas ocde 2014 sin embargo como se ha señalado anteriormente las diferencias en la calidad de los sistemas educativos pueden dar lugar a diferencias significativas en el nivel de competencias alcanzado por personas con el mismo nivel educativo según los resultados de la encuesta sobre las competencias de los adultos la magnitud es tal que los titulados universitarios de países con sistemas educativos de bajo rendimiento tienen niveles de competencias similares a los de los estudiantes que solo han alcanzado la educación secundaria en los países con mejores resultados figura 11</t>
+          <t>periodo gasto alumno nivel primario secundario postsecundario terciario aumentar mayoría país ocde 19 medio ocde incremento gasto 15 ligero descenso número alumno 3 cohorte llegar edad escolar reducido ocde 2014 señalado anteriormente diferencia calidad sistema educativo lugar diferencia significativo nivel competencia alcanzado persona nivel educativo resultado encuesta competencia adulto magnitud titulado universitario país sistema educativo rendimiento nivel competencia similar estudiante alcanzado educación secundario país mejor resultado figurar 11</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>redes de pares tenc los pocos sistemas de américa latina y medio oriente escala la tabla indica dónde entre todos los docentes un determinado docente se beneficiaría de una sola mejor práctica en comparación con aquellos que se benefician de cinco o diez tan importantes la tabla 21 muestra el puntaje de un docente en la profesionalidad docente que se espera que clasifique si se benefició de las prácticas que la ocde identifica o se encuentra entre el tercio inferior de todas las profesiones y entornos laborales</t>
+          <t>red par tenc sistema américo latina oriente escala tablo indicar docente determinado docente beneficiaría práctico comparación beneficiar importante tabla 21 mostrar puntaje docente profesionalidad docente esperar clasifique beneficiar práctica ocde identificar tercio inferior profesión entorno laboral</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,17 +1348,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>varios países de américa latina y áfrica han intentado con la fuerte ayuda de los donantes formalizar los títulos de propiedad de la tierra siguiendo el argumento de de soto a pesar de que de soto ha ofrecido poca evidencia real de que la formalización de los títulos de propiedad en realidad conduzca a un mayor acceso al crédito y por lo tanto a la reducción de la pobreza en el mundo en desarrollo según la defensora legal murtaza jaffer citado en bourbeau 2001 pp los pobres pronto venden sus intereses regresando una vez más a los asentamientos no planificados y la desesperación</t>
+          <t>país américo latino áfrica intentado fuerte ayuda donant formalizar título propiedad tierro seguir argumento soto soto ofrecido evidencia real formalización título propiedad realidad conducir acceso crédito reducción pobreza mundo desarrollo defensorar legal murtaza jaffer citado bourbeau 2001 pp pobre vender interés regresar asentamiento planificado desesperación</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>se debe dar prioridad a una serie de áreas políticas clave primero es importante atraer candidatos de alta calidad a la profesión y garantizar que los mejores líderes escolares trabajen en las escuelas más desfavorecidas chile necesita mejorar el perfil del liderazgo escolar una estructura de carrera diferenciada con su propia escala salarial podría asegurar niveles de remuneración adecuados significativamente superiores a los de los docentes y similares a otros profesionales del sector público con niveles de responsabilidad similares</t>
+          <t>prioridad serie área política clave importante atraer candidato alto calidad profesión garantizar mejor líder escolar trabajen escuela desfavorecido chile necesitar mejorar perfil liderazgo escolar estructura carrera diferenciado escala salarial asegurar nivel remuneración adecuado significativamente superior docente similar profesional sector público nivel responsabilidad similar</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>hay una sobreoferta de formación docente inicial que tiene una calidad desigual y las oportunidades de desarrollo profesional carecen tanto de estructura como de un enfoque basado en la escuela de manera similar los líderes escolares y otros líderes educativos no están bien preparados apoyados o reconocidos y su rol carece de un enfoque en la mejora educativa han emprendido un programa aprobado de preparación docente o su equivalente en otro lugar</t>
+          <t>sobreoferta formación docente inicial calidad desigual oportunidad desarrollo profesional carecer estructura enfoque basado escuela similar líder escolar líder educativo preparado apoyado reconocido rol carecer enfoque mejora educativo emprendido programa aprobado preparación docente equivalente lugar</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>en conjunto el tiempo dedicado por los jóvenes de 15 años a la instrucción en la escuela y el tiempo de instrucción autodeclarado fuera de la escuela 43 horas es ligeramente inferior a la media de la ocde 44 horas panorama de la educación 2016 indicadores de la ocde tabla d 11 liltndxdoiorg101787cag-2016-cn los hombres representan el 18 de la mano de obra en educación secundaria inferior y solo el 3 en educación primaria ambas cifras por debajo de la media de la ocde y la ue</t>
+          <t>conjunto tiempo dedicado joven 15 año instrucción escuela tiempo instrucción autodeclarado escuela 43 hora ligeramente inferior medio ocde 44 hora panoramar educación 2016 indicador ocde tablo d 11 liltndxdoiorg101787cag-2016-cn hombre representar 18 mano obro educación secundario inferior 3 educación primario ambos cifra medio ocde ue</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1388,17 +1388,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>pero las tendencias de la pobreza por edad han ido cambiando la ocde 2008 informó que las personas que han visto los mayores aumentos de ingresos en las últimas dos décadas son las que se encuentran en edad de jubilación 55-75 mientras que los jóvenes entre 16 y 24 años y los niños han visto disminuir sus ingresos relativos como consecuencia la tasa de pobreza de los pensionistas ha disminuido con caídas muy grandes en algunos países y ahora está por debajo del promedio de población de la ocde para los jubilados mayores aquellos mayores de 75 años el riesgo de pobreza también sigue siendo relativamente alto 15 veces el promedio de la población y las mujeres mayores solteras están particularmente en riesgo</t>
+          <t>tendencia pobrezar edad ido cambiar ocde 2008 persona visto mayor aumento ingreso década encontrar edad jubilación 55-75 joven 16 24 año niño visto disminuir ingreso relativo consecuencia tasa pobrezar pensionista disminuido caído país promedio población ocde jubilado mayor mayor 75 año riesgo pobrezar relativamente alto 15 promedio población mujer mayor soltera particularmente riesgo</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>si bien se encuentra que las escuelas con bajo rendimiento suelen utilizar los comentarios de las visitas de inspección para mejorar la calidad hay indicios de que las escuelas etiquetadas como de calidad básica a menudo se involucran menos en el uso de información evaluativa para obtener información sobre sus propios desafíos y planificar la mejora inspección holandesa de educación 2013 la evaluación y evaluación en los países bajos operan en un contexto en el que la mayoría de las escuelas son propiedad de organismos no públicos por ejemplo comunidades religiosas o profesionales que persiguen filosofías pedagógicas particulares e incluso las escuelas públicas suelen ser administradas por juntas semiautónomas similares a los del sector no público ver capítulo 1 como se describió anteriormente el tamaño y la composición de los consejos escolares así como las competencias de evaluación de los miembros del consejo escolar son muy variables en su informe 20112012 sobre el estado de la educación en los países bajos la inspección señala que la garantía de calidad es un área en la que muchas juntas escolares podrían mejorar inspección de educación de los países bajos 2013 p 27</t>
+          <t>escuela rendimiento soler utilizar comentario visitas inspección mejorar calidad indicio escuela etiquetada calidad básico involucrar información evaluativo obtener información desafíos planificar mejora inspección holandés educación 2013 evaluación evaluación país bajo operar contexto mayoría escuela propiedad organismo público ejemplo comunidad religioso profesional persigar filosofía pedagógico particular escuela público soler administrada junto semiautónoma similar sector público capítulo 1 describir anteriormente tamaño composición consejo escolar competencia evaluación miembro consejo escolar variable informir 20112012 educación país bajo inspección señalar garantía calidad área junto escolar mejorar inspección educación país bajo 2013 p 27</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>por tanto es fundamental que los responsables políticos ayuden a los adultos a mejorar las competencias y cualificaciones educativas que necesitan en el mercado laboral esto incluye ayudarles a encontrar empleo por ejemplo mediante orientación profesional y tutoría y también motivar a los empresarios para que inviertan en su mano de obra y especialmente en la población desfavorecida los adultos con un mayor nivel educativo tienen más posibilidades de estar empleados y ganar salarios más altos</t>
+          <t>fundamental responsable político ayudar adulto mejorar competencia cualificación educativo necesitar mercado laboral incluir ayudar él encontrar empleo ejemplo orientación profesional tutoer motivar empresario invertir mano obro especialmente población desfavorecido adulto nivel educativo posibilidad empleado ganar salario alto</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>un sistema de atención primaria funcional en el que el médico de familia actúe como centro coordinador de la atención a pacientes complejos y garantice que los medicamentos y los regímenes de tratamiento se revisan adecuadamente a lo largo del tiempo contribuirá a garantizar que se atienden las necesidades de atención complejas derivadas de las enfermedades crónicas un buen ejemplo de programa comunitario en corea es el proyecto de registro de gwang myeong centrado en el tratamiento de la diabetes y la hipertensión véase el recuadro 31 este proyecto piloto está dirigido por el gobierno provincial de gyeonggi y en él colaboran el ministerio de salud y bienestar el centro coreano de control de enfermedades el gobierno provincial de gyeonggi el centro de salud metropolitano de gwang myeong instituciones provinciales de atención médica y farmacias y el centro de control de la hipertensióndiabetes mellitus</t>
+          <t>sistema atención primario funcional médico familia actuar centro coordinador atención paciente complejo garantizar medicamento regímén tratamiento revisar adecuadamente tiempo contribuir garantizar atender necesidad atención complejo derivado enfermedad crónico ejemplo programa comunitario corea proyecto registro gwang myeong centrado tratamiento diabet hipertensión véar recuadro 31 proyecto piloto dirigido gobierno provincial gyeonggi colaborar ministerio salud bienestar centro coreano control enfermedad gobierno provincial gyeonggi centro salud metropolitano gwang myeong institución provincial atención médico farmacia centro control hipertensióndiabet mellitu</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>de acuerdo con el último informe pisa sobre el bienestar de los estudiantes ocde 2017 el 44 de los estudiantes informaron que esperan completar la educación terciaria en promedio en los países de la ocde solo el 26 de los estudiantes en el cuartil inferior del índice escs de pisa informaron que esperan completar la universidad en comparación con el 66 de los estudiantes del índice escs superior en promedio en los países de la ocde en alemania los países bajos eslovenia menos del 10 de los estudiantes informaron que esperaban obtener un título universitario</t>
+          <t>informe pisa bienestar estudiant ocde 2017 44 estudiante informar esperar completar educación terciario promedio país ocde 26 estudiante cuartil inferior índice escs pís informar esperar completar universidad comparación 66 estudiante índizar escs superior promedio país ocde alemania país bajo eslovenia 10 estudiante informar esperar obtener título universitario</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>en otras palabras no se puede determinar la dirección causal de esta asociación sin embargo en más de un tercio de los países y economías incluidos muchos que compensan las desventajas en las escuelas asignando más docentes a esas escuelas los docentes de las escuelas más desfavorecidas están menos calificados yo tienen menos experiencia que los de las escuelas más aventajadas gráfico 12 a veces las mismas políticas que canalizan más recursos a las escuelas de alta necesidad podrían de hecho disuadir a los maestros con más experiencia de enseñar en estas escuelas donde las reglas establecidas centralmente para la promoción y la movilidad de los docentes privilegian las preferencias de los docentes y dan prioridad a los docentes de mayor antigüedad y donde el salario de los docentes no varía mucho entre las escuelas o entre los docentes con experiencia y calificaciones similares parece difícil evitar atraer una alta concentración de los profesores más experimentados en las escuelas más prestigiosas</t>
+          <t>palabra determinar dirección causal asociación tercio país economía incluido compensar desventaja escuela asignar docente escuela docente escuela desfavorecido calificado experiencia escuela aventajado gráfico 12 política canalizar recurso escuela alto necesidad disuadir maestro experiencia enseñar escuela regla establecido centralmente promoción movilidad docente privilegiar preferencia docente prioridad docente antigüedad salario docente vacer escuela docente experiencia calificación similar difícil evitar atraer alto concentración profesor experimentado escuela prestigioso</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>sin embargo las poblaciones rurales así como los aborígenes y los isleños del estrecho de torres obtienen peores resultados académicos y tienen menos acceso a la enseñanza superior que la media nacional una alta proporción de niños están matriculados en educación infantil y la escuela es general hasta los 16 años la posibilidad de elegir escuela está muy extendida en comparación con la zona de la ocde los itinerarios de secundaria y superior tienen como objetivo preparar a los estudiantes para la integración social y la entrada en el mercado laboral las tasas de éxito en la enseñanza secundaria superior se sitúan en la media de la ocde</t>
+          <t>población rural aborigen isleño estrecho torre obtener peor resultado académico acceso enseñanza superior medio nacional alto proporción niño matriculado educación infantil escuela general 16 año posibilidad elegir escuela extendido comparación zona ocde itinerario secundario superior objetivo preparar estudiant integración social entrado mercado laboral tasa éxito enseñanza secundario superior situar medio ocde</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>se basa en los nueve años de educación básica seis de primaria y tres de secundaria los alumnos que acceden al segundo ciclo de secundaria pueden ir a un centro de orientación más académica o a un centro de formación profesional esto se aplica tanto en el sistema islámico como en el no islámico la enseñanza secundaria superior formal comprende la enseñanza general sekolah menengah atas o sma la enseñanza profesional sekolah menengah kejuruan o smk las escuelas secundarias superiores islámicas madrasah aliyah o ma y la enseñanza profesional islámica madrasah aliyah kejuruan o mak este capítulo se centra principalmente en la enseñanza secundaria superior académica mientras que el capítulo 5 trata de la formación profesional se está trabajando en el desarrollo de colegios comunitarios y vías alternativas de acceso a la enseñanza superior</t>
+          <t>basar año educación básico primario secundario alumno acceder ciclo secundario centro orientación académico centro formación profesional aplicar sistema islámico islámico enseñanza secundario superior formal comprender enseñanza general sekolah menengah ata sma enseñanza profesional sekolah menengah kejuruan smk escuela secundario superior islámico madrasah aliyah ma enseñanza profesional islámico madrasah aliyah kejuruan mak capítulo centrar principalmente enseñanza secundario superior académico capítulo 5 formación profesional trabajar desarrollo colegio comunitario vía alternativo acceso enseñanza superior</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>el gasto farmacéutico puede reducirse haciendo un uso más eficaz de las prácticas de contratación pública y fomentando la prescripción de genéricos hungría informa entre las tasas de mortalidad más altas tanto para los cánceres prevenibles p ej cáncer de pulmón como para los cánceres tratables p ej cáncer de mama de cuello uterino y de colon existen programas nacionales para promover la detección periódica del cáncer de mama y de cuello uterino pero las tasas de detección entre las mujeres del grupo de edad objetivo siguen siendo bajas</t>
+          <t>gasto farmacéutico reducir él eficaz práctico contratación público fomentar prescripción genérico hunger informar tasa mortalidad alto cáncer prevenibl p ej cáncer pulmón cáncer tratabl p ej cáncer mama cuello uterino colon programa nacional promover detección periódico cáncer mama cuello uterino tasa detección mujer grupo edad objetivo seguir baja</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>de media por cada 1 de crecimiento adicional del gasto sanitario antes de la crisis se produjo una caída del 09 del gasto sanitario después de la crisis esta recesión ha sido en muchos aspectos más profunda ha durado más y ha experimentado una recuperación más débil que recesiones anteriores como las vividas en las décadas de 1970 y 1980 ocde 2012 los patrones del gasto sanitario también han sido notablemente diferentes durante la recesión del psot-2008</t>
+          <t>medio 1 crecimiento adicional gasto sanitario crisis producir caída 09 gasto sanitario crisis recesión aspecto profundo durado experimentado recuperación débil recesión anterior vivido década 1970 1980 ocde 2012 patrón gasto sanitario notablemente recesión psot-2008</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>una investigación basada en la encuesta sobre insuficiencia cardíaca en israel que examinó la calidad de la atención a los pacientes con insuficiencia cardíaca descubrió que las tasas de mortalidad aumentaban bruscamente tras el alta hospitalaria la mortalidad intrahospitalaria fue del 47 sin embargo la mortalidad aumentó al 19 a los seis meses del alta y al 28 al año del alta garty et al el elevado riesgo de mortalidad a largo plazo indica la necesidad urgente de desarrollar estrategias de tratamiento más eficaces para los pacientes con icc dados de alta del hospital</t>
+          <t>investigación basado encuesta insuficiencia cardíacar israel examinar calidad atención paciente insuficiencia cardíaco descubrir tasa mortalidad aumentar bruscamente alto hospitalario mortalidad intrahospitalario 47 mortalidad aumentar 19 mes alta 28 año alto garty et elevado riesgo mortalidad plazo indicar necesidad urgente desarrollar estrategia tratamiento eficaz paciente icc dado alta hospital</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>este informe examina la situación en canadá con respecto a la pobreza infantil las privaciones materiales que afectan a las familias y el bienestar de los niños niñas y adolescentes con base en indicadores disponibles para el análisis comparativo también informa sobre el desarrollo de políticas para comprender las tendencias de la pobreza infantil e identificar algunas direcciones de políticas que pueden ayudar a reducir la pobreza infantil en el futuro el informe está organizado de la siguiente manera</t>
+          <t>informe examina situación canadá pobreza infantil privación material afectar familia bienestar niño niña adolescente base indicador disponible análisis comparativo informar desarrollo política comprender tendencia pobreza infantil identificar dirección política ayudar reducir pobreza infantil futuro informe organizado</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,17 +1508,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>aunque la titularidad pública de los centros de salud sigue siendo la norma en muchos consejos comarcales especialmente en las zonas rurales y escasamente pobladas el número de proveedores privados aumentó significativamente tras las reformas recientes en algunos consejos de condado son actores importantes en estocolmo por ejemplo aproximadamente la mitad de todos los proveedores de atención primaria son privados aunque no existen evaluaciones sólidas del impacto de las reformas se han informado algunos impactos positivos se informa que las reformas recientes aumentaron la capacidad de atención primaria redujeron los tiempos de espera y mejoraron el acceso incluso para los grupos de bajos ingresos anell et al a pesar del aumento de proveedores de atención primaria la escasez relativa persiste en las áreas rurales porque la expansión se ha producido principalmente en áreas más ricas urbanas y más densamente pobladas las reformas también han traído un mayor enfoque en la calidad la eficiencia y la transparencia ejemplificado por la medición y publicación de información sobre el desempeño para apoyar la elección del paciente por ejemplo a través del sitio web open comparisons e incentivos a los consejos comarcales y municipios para la mejora de la calidad</t>
+          <t>titularidad público centro salud norma consejo comarcal especialmente zona rural escasamente poblado número proveedor privado aumentar significativamente reforma reciente consejo condado actor importante estocolmo ejemplo mitad proveedor atención primario privado evaluación sólido impacto reforma informado impacto positivo informar reforma reciente aumentar capacidad atención primario reducir tiempo esperar mejorar acceso grupo bajo ingreso anell et aumento proveedor atención primario escasez relativo persistir área rural expansión producido principalmente área rico urbano densamente poblado reforma traído enfoque calidad eficiencia transparencia ejemplificado medición publicación información desempeño apoyar elección paciente ejemplo sitio web open comparisons incentivo consejo comarcal municipio mejorar calidad</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>aunque varios estudios analizan la dinámica de la pobreza infantil en países individuales por ejemplo ashworth et al sin embargo una perspectiva transnacional proporciona puntos de referencia para los resultados nacionales también ayuda a explorar los efectos de diversos entornos de políticas o al menos formular preguntas relevantes sobre efectos de política ver valletta 2006 el estudio analiza el alcance de la movilidad a lo largo de los deciles de la distribución del ingreso investiga si el crecimiento del ingreso entre los niños ha sido favorable a los pobres y si la movilidad del ingreso puede haber compensado la desigualdad de ingresos entre los niños</t>
+          <t>estudio analizar dinámico pobreza infantil país individual ejemplo ashworth et perspectiva transnacional proporcionar punto referencia resultado nacional ayuda explorar efecto diverso entorno política formular pregunta relevante efecto político valletta 2006 estudio analizar alcance movilidad decil distribución ingreso investigar crecimiento ingreso niño favorable pobre movilidad ingreso compensado desigualdad ingreso niño</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>el gobierno decidió recientemente establecer una formación especializada para enfermeras en cuidados crónicos fuera de los hospitales con estas enfermeras muy probablemente empleadas en prácticas de médicos generales y servicios de salud municipales las regiones también invirtieron en centros de especialidades múltiples llamados casas de salud que incluyen médicos de cabecera que también actúan como coordinadores de la atención especialistas y fisioterapeutas aunque han surgido dificultades para contratar médicos de cabecera consulte la sección 52 el sistema de atención primaria parece estar resistiendo bien a pesar de las reducciones en la actividad de atención aguda descritas anteriormente aunque las hospitalizaciones evitables por ciertas afecciones son más altas que el promedio de la ue consulte la sección s3</t>
+          <t>gobierno decidir recientemente establecer formación especializado enfermera cuidado crónico hospital enfermera probablemente empleada práctico médico general servicio salud municipal región invertir centro especialidad múltiple llamado casa salud incluir médico cabecero actuar coordinador atención especialista fisioterapeuta surgido dificultad contratar médico cabecero consultar sección 52 sistema atención primario resistir reducción actividad atención agudo descrita anteriormente hospitalización evitabl afección alto promedio ue consultar sección s3</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>estos números se basan en una medida estándar de pobreza relativa definida como aquellos por debajo del 50 del ingreso medio disponible la tasa de pobreza relativa se define como la proporción de personas que viven en hogares con menos del 50 de la renta mediana disponible ajustada por el tamaño de la familia y después de impuestos y transferencias de la población total el gini probablemente la medida de desigualdad de ingresos más utilizada es particularmente sensible a los cambios en la mitad de la distribución de ingresos mientras que las otras medidas se enfocan más en las colas de la distribución</t>
+          <t>número basar medida estándar pobreza relativo definido 50 ingreso disponible tasa pobreza relativo definir proporción persona vivir hogar 50 renta mediano disponible ajustado tamaño familiar impuesto transferencia población gini probablemente medido desigualdad ingreso utilizado particularmente sensible cambio mitad distribución ingreso medida enfocar cola distribución</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>también se espera que las escuelas promuevan una buena salud mental para los estudiantes y permanezcan alertas a los problemas de salud mental la recomendación 12 de nice public health nice 2008 por ejemplo ofrece pautas sobre el bienestar social y emocional en la educación primaria afirmando que â las escuelas y las autoridades locales deben asegurarse de que los maestros y demás personal estén capacitados para identificar cuándo los niños en la escuela muestran signos de ansiedad o problemas sociales y emocionales deben ser capaces de discutir los problemas con los padres y cuidadores y desarrollar un plan para tratarlos involucrando a especialistas cuando sea necesario la iniciativa targeted mental health in schools tamhs que se llevó a cabo entre 2008 y 2011 fue respaldada con gbp 60 millones de fondos del departamento de niños escuelas y familias el programa tenía como objetivo abordar la prestación de apoyo emocional y de salud mental en las escuelas para niños de 5 a 13 años y se descubrió que había tenido resultados mixtos al final del programa de tres años</t>
+          <t>esperar escuela promover salud mental estudiante permanecer alerta problema salud mental recomendación 12 nizar public health nice 2008 ejemplo ofrecer pauta bienestar social emocional educación primario afirmar â escuela autoridad local asegurar él maestro personal estar capacitado identificar niño escuela mostrar signo ansiedad problema social emocional capaz discutir problema padr cuidador desarrollar plar tratar él involucrar especialista necesario iniciativo targeted mental health in schools tamhs llevar cabo 2008 2011 respaldado gbp 60 millón fondo departamento niño escuela familia programa objetivo abordar prestación apoyo emocional salud mental escuela niño 5 13 año descubrir resultado mixto programa año</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,27 +1558,27 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>en 2011 el número promedio de pacientes con esrf en todos los países fue de 101 por 100 000 habitantes con una amplia variación entre países países como singapur e islandia informaron menos de 70 pacientes con esrf por cada 100 000 habitantes mientras que portugal y los estados unidos informaron más de 150 el número de pacientes con esrf aumentó en todos los países durante el período 2000 a 2011 en promedio la cantidad de pacientes aumentó un 36 durante el período de 11 años pero en países como corea la tasa casi se duplicó durante este período</t>
+          <t>2011 número promedio paciente esrf país 101 100 000 habitante ampliar variación país país singapur islandia informar 70 paciente esrf 100 000 habitante portugal unidos informar 150 número paciente esrf aumentar país período 2000 2011 promedio cantidad paciente aumentar 36 período 11 año país corea tasa duplicar período</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>hasta hace poco solo un comprador importante se había integrado verticalmente con los proveedores esta situación ha surgido principalmente debido a un consenso político en torno a la inconveniencia de una creciente integración vertical en el contexto holandés propuestas que podrían expandir los niveles actuales de integración vertical - por ejemplo la creación de una cooperativa propuesta en 2008 que involucra a una aseguradora de salud regional una cooperativa de médicos regional y otros profesionales de la salud para hacerse cargo de un hospital local en dificultades financieras- han recibido una fuerte oposición en el parlamento debido a preocupaciones sobre la autonomía profesional y la libre elección de proveedor por parte de los usuarios las aseguradoras son libres de competir por los inscritos mediante ajustes a sus primas calificadas por la comunidad y esto ha resultado en una fuerte competencia de precios entre las aseguradoras la mayor competencia por los afiliados a través de los precios de las pólizas se tradujo rápidamente en una presión financiera sobre las aseguradoras cuya reacción general ha sido doble schut y van de ven 2011 en primer lugar ha habido una mayor experimentación y adopción de medidas para reducir los costos operativos y de gestión</t>
+          <t>comprador importante integrado verticalmente proveedor situación surgido principalmente consenso político torno inconveniencia creciente integración vertical contexto holandés propuesta expandir nivel actual integración vertical ejemplo creación cooperativo propuesta 2008 involucra asegurador salud regional cooperativo médico regional profesional salud hacer él cargo hospital local dificultad financieras- recibido fuerte oposición parlamento preocupación autonomía profesional libre elección proveedor usuario aseguradora libre competir inscrito ajuste primo calificado comunidad resultado fuerte competencia precio asegurador competencia afiliado precio póliza traducir rápidamente presión financiero aseguradora cuyo reacción general doble schut ver 2011 lugar habido experimentación adopción medida reducir costo operativo gestión</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>además los objetivos nacionales de calidad iniciados en 2016 establecieron un marco para mejorar la calidad y la eficiencia de la atención en todos los entornos el sistema de salud danés es eficaz en la prevención de la mortalidad por causas tratables como la cardiopatía isquémica y el accidente cerebrovascular la tasa de letalidad de los pacientes con infarto de miocardio se encuentra entre las más bajas de la ue</t>
+          <t>objetivo nacional calidad iniciado 2016 establecer marco mejorar calidad eficiencia atención entornos sistema salud danés eficaz prevención mortalidad causa tratabl cardiopatir isquémico accidente cerebrovascular tasa letalidad paciente infarto miocardio bajo ue</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,17 +1588,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>el sistema sanitario está obligado a prestar la misma atención a todos los ciudadanos independientemente de su lugar de residencia para ello se necesita un gran número de centros sanitarios pequeños y rentables capaces de prestar cuidados intensivos ya que los gastos de transporte de pacientes y personal son muy elevados182 debido a su pequeño tamaño y aislamiento las ciudades y pueblos de groenlandia suelen tener que ser autosuficientes y son muy vulnerables a los factores externos18 en groenlandia no existen proveedores privados de servicios sanitarios pero en nuuk se ofrecen servicios privados de odontología fisioterapia psicoterapia y tratamiento del alcoholismo y la drogadicción en el pasado las complicaciones perinatales las enfermedades infecciosas agudas y crónicas y las lesiones dominaban como principales causas de morbilidad184 recientemente las enfermedades crónicas y relacionadas con el estilo de vida y las discapacidades dominan los problemas de morbilidad a pesar de que las enfermedades antiguas no han disminuido a los mismos niveles bajos que en los países occidentales</t>
+          <t>sistema sanitario obligado prestar atención ciudadano independientemente lugar residencia necesitar número centro sanitario pequeño rentable capaz prestar cuidado intensivo gasto transporte paciente personal elevados182 pequeño tamaño aislamiento ciudad pueblo groenlandiar soler autosuficient vulnerable factor externos18 groenlandiar proveedor privado servicio sanitario nuuk ofrecer servicio privado odontologío fisioterapia psicoterapio tratamiento alcoholismo drogadicción complicación perinatal enfermedad infeccioso agudo crónica lesión dominar principal causa morbilidad184 recientemente enfermedad crónico relacionado estilo vida discapacidad dominar problema morbilidad enfermedad antiguo disminuido nivel bajo país occidental</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>la comisión ha subrayado recientemente la importancia de la educación y los conocimientos sanitarios para mejorar los resultados sanitarios a lo largo de la vida con especial atención a los adolescentes y los jóvenes las resoluciones sobre determinados grupos de población como los emigrantes los adolescentes y jóvenes las personas mayores o los residentes urbanos y rurales han reconocido las necesidades sanitarias de esos grupos y las implicaciones conexas para los sistemas de salud las resoluciones también han llamado la atención sobre los efectos negativos de la emigración de trabajadores altamente cualificados en el desarrollo de los países de origen a menudo en los sectores relacionados con la salud y han pedido una contratación ética de los trabajadores sanitarios</t>
+          <t>comisión subrayado recientemente importancia educación conocimiento sanitario mejorar resultado sanitario vida especial atención adolescente joven resolución determinado grupo población emigrant adolescente joven persona mayor residente urbano rural reconocido necesidad sanitario grupo implicación conexa sistema salud resolución llamado atención efecto negativo emigración trabajador altamente cualificado desarrollo país origen sector relacionado salud pedido contratación ético trabajador sanitario</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>la atención primaria no basta por sí sola para lograr el impacto necesario para mejorar la salud urbana además de la atención primaria las políticas y la legislación pertinente deben prestar la debida atención a cuestiones más amplias de salud pública la asignación presupuestaria para los servicios de salud pública debería aumentarse del 4 actual al 8 como se ha hecho en los países vecinos</t>
+          <t>atención primario bastar lograr impacto necesario mejorar salud urbano atención primario política legislación pertinente prestar debido atención cuestión amplio salud público asignación presupuestario servicio salud público deber aumentar él 4 actual 8 país vecino</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,37 +1618,37 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>el capítulo revisa las políticas sociales existentes y los intentos recientes de encontrar mejores formas de asignar los recursos públicos a los más necesitados en particular las familias con niños concluye con un resumen de los principales desafíos y sugiere vías de reforma para desarrollar un sistema de protección social que apoyaría a la población en edad de trabajar de manera más efectiva la fuerte desaceleración económica subsiguiente en 2009 no generó un aumento significativo en las tasas generales de pobreza ya que los ajustes del mercado laboral implicaron una reducción de las horas de trabajo en lugar de despidos capítulo 1 y porque los pagos de pensiones aumentaron casi un 50 desde 2007 capítulo 4</t>
+          <t>capítulo revisa política social existente intento reciente encontrar mejor forma asignar recurso público necesitado particular familia niño concluir resumir principal desafío sugerir vía reforma desarrollar sistema protección social apoyar población edad trabajar efectivo fuerte desaceleración económico subsiguiente 2009 generar aumento significativo tasa general pobrezar ajuste mercado laboral implicar reducción hora trabajar lugar despido capítulo 1 pago pensión aumentar 50 2007 capítulo 4</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>si bien el control del vihsida y de las enfermedades infecciosas absorbió alrededor del 20 de los compromisos de aod en la década de 1990 12 y 8 respectivamente estos programas representaron el 51 de todos los compromisos en 2005-2006 35 y 16 respectivamente en primer lugar la lucha contra determinadas enfermedades especialmente las enfermedades contagiosas es un bien público global y por tanto requiere respuestas globales y eficaces en segundo lugar centrarse en una enfermedad específica puede movilizar la opinión pública y los recursos de una forma más eficaz</t>
+          <t>control vihsido enfermedad infeccioso absorber 20 compromiso aod décado 1990 12 8 respectivamente programa representar 51 compromiso 2005-2006 35 16 respectivamente lugar luchar determinado enfermedad especialmente enfermedad contagiosa público global requerir respuesta global eficaz lugar centrar él enfermedad específico movilizar opinión público recurso forma eficaz</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>para estimar la carga financiera de los eda en alemania stark et al 2011 basaron el estudio de costes en un modelo procedente del sistema sanitario estadounidense sus estimaciones cuantificaron en 816 millones de euros los costes de la asistencia sanitaria relacionados con los eda surgidos en entornos de asistencia ambulatoria es decir el 022 del gasto sanitario alemán en 2011 casi el 60 se debió a hospitalizaciones el 11 a visitas a urgencias y el 21 restante a gastos realizados en cuidados de larga duración sin embargo estos costes son solo aproximaciones</t>
+          <t>estimar carga financiero edo alemania stark et 2011 basar estudio cost modelo procedente sistema sanitario estadounidense estimación cuantificar 816 millón euros coste asistencia sanitario relacionado edo surgido entorno asistencia ambulatorio 022 gasto sanitario alemán 2011 60 deber hospitalización 11 visita urgencia 21 restante gasto realizado cuidado largo duración coste aproximación</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>además de caracterizar el estado de la población por ejemplo al realizar las evaluaciones económicas de las intervenciones de control del cáncer pohem suele utilizar una muestra de simulación de un millón de individuos y reúne información sobre los factores de riesgo la incidencia de la enfermedad por edad sexo y tipo de célula la distribución por estadios en el momento del diagnóstico y los enfoques diagnósticos y terapéuticos estándar o típicos utilizados además se requieren datos sobre la progresión de la enfermedad tras el diagnóstico inicial en función de la edad el sexo y el estadio en el momento del diagnóstico además de las pautas de seguimiento de la práctica el tratamiento en la recaída y los cuidados terminales por lo tanto se utilizan 23 conjuntos de datos diferentes que incluyen diversos registros de cáncer y registros hospitalarios datos de asociaciones farmacéuticas encuestas de salud de la población estudios de cribado y ensayos clínicos etc</t>
+          <t>caracterizar población ejemplo evaluación económico intervención control cáncer pohem soler utilizar muestra simulación millón individuo reúnir información factor riesgo incidencia enfermedad edad sexo tipo célula distribución estadio momento diagnóstico enfoque diagnóstico terapéutico estándar típico utilizado requerir dato progresión enfermedad diagnóstico inicial función edad sexo estadio momento diagnóstico pauta seguimiento práctico tratamiento recaído cuidado terminal utilizar 23 conjunto dato incluir diverso registro cáncer registro hospitalario dato asociación farmacéutico encuesta salud población estudio cribado ensayo clínico etc</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>al mismo tiempo el hecho de que los jóvenes que no estudian ni trabajan contribuyen cada vez más a la pobreza general en los países con las tasas de pobreza más bajas plantea la cuestión de si este indicador mide la pobreza real o simplemente la vulnerabilidad a la pobreza por lo tanto la configuración de las arquitecturas y responsabilidades políticas e institucionales debe diferir en consecuencia si bien esta edición del panorama social considera solo algunos de los aspectos básicos de este tipo de medición de la pobreza estos son suficientes para ilustrar las potencialidades y desafíos que presentan las mediciones multidimensionales</t>
+          <t>tiempo joven estudiar trabajar contribuir pobreza general país tasa pobrezar bajo plantear cuestión indicador medir pobreza real simplemente vulnerabilidad pobrezar configuración arquitectura responsabilidad política institucional diferir consecuencia edición panorama social aspecto básico tipo medición pobreza suficiente ilustrar potencialidad desafío presentar medición multidimensional</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,17 +1668,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>sus médicos también son contratados en el extranjero porque no hay facultad de medicina en luxemburgo y están envejeciendo aunque los residentes luxemburgueses tienden a regresar tras su educación y formación profesional en el extranjero esto crea una fuerte dependencia de los países vecinos y una competencia por los escasos profesionales sanitarios las medidas de contención de costes se centraron en limitar el gasto hospitalario mediante la introducción de presupuestos hospitalarios globales la sustitución de productos farmacéuticos por alternativas menos costosas y la congelación temporal de las tarifas de los proveedores de servicios</t>
+          <t>médico contratado extranjero facultad medicín luxemburgo envejecer residente luxemburgués tender regresar educación formación profesional extranjero creer fuerte dependencia país vecino competencia escaso profesional sanitario medida contención coste centrar limitar gasto hospitalario introducción presupuesto hospitalario global sustitución producto farmacéutico alternativo costoso congelación temporal tarifa proveedor servicio</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>esto representa un aumento significativo de las estimaciones de una década antes los problemas de sobrepeso y obesidad entre niños y adolescentes aumentan considerablemente el riesgo de tener sobrepeso y obesidad en la edad adulta casi todos los aspectos del sistema público planificación organización administración y regulación están muy centralizados mientras que el sector privado está fragmentado bajo el nuevo sistema nacional de salud propuesto cuadro 1 habrá un comprador la organización de seguros de salud un proveedor público autónomo y varios proveedores privados que tendrán la opción de contratar con la organización de seguros de salud las relaciones comprador-proveedor entre los sectores público y privado ya existen en el sistema actual de forma limitada cuando el sector público compra servicios principalmente sobre la base de pago por servicio de proveedores privados</t>
+          <t>representar aumento significativo estimación décado problema sobrepeso obesidad niño adolescente aumentar considerablemente riesgo sobrepeso obesidad edad adulto aspecto sistema público planificación organización administración regulación centralizado sector privado fragmentado sistema nacional salud propuesto cuadro 1 comprador organización seguro salud proveedor público autónomo proveedor privado opción contratar organización seguro salud relación comprador-proveedor sector público privado sistema actual forma limitado sector público comprar servicio principalmente base pago servicio proveedor privado</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>los pacientes asegurados públicamente con ciertas condiciones médicas y discapacidades están exentos o pagan copagos reducidos en atención primaria ambulatoria contactos de especialistas ambulatorios pruebas de laboratorio clínico productos farmacéuticos y anteojos yo lentes de contacto las personas que se benefician de una pensión de invalidez están totalmente cubiertas para el tratamiento de enfermedades y durante el embarazo excepto algunos medicamentos designados y homeopáticos que no están cubiertos o tienen una tarifa menor las personas mayores están exentas de copagos por productos farmacéuticos para estas personas el copago por mes está basado en los ingresos del hogar y está limitado al 10 de los costos de un servicio médico</t>
+          <t>paciente asegurado públicamente condición médico discapacidad exento pagar copago reducido atención primario ambulatorio contacto especialista ambulatorio prueba laboratorio clínico producto farmacéutico anteojo lent contacto persona beneficiar pensión invalidez totalmente cubierto tratamiento enfermedad embarazo medicamento designado homeopático cubierto tarifa menor persona mayor exenta copago producto farmacéutico persona copago mes basado ingreso hogar limitado 10 costo servicio médico</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>el gráfico 14 muestra cuánto influyó cada fuente de ingreso en la variación del ingreso per cápita de los hogares por debajo de la línea de pobreza en países donde las tasas de pobreza han disminuido significativamente en los últimos años en los países donde disminuyó la pobreza el ingreso laboral representó la mitad o más del cambio en el ingreso per cápita total así en este episodio más reciente de reducción de la pobreza el mercado laboral ha sido uno de los principales impulsores del repunte</t>
+          <t>gráfico 14 muestra influir fuente ingreso variación ingreso per cápita hogar líneo pobrezar país tasa pobrezar disminuido significativamente año país disminuir pobreza ingreso laboral representar mitad cambio ingreso per cápita episodio reciente reducción pobreza mercado laboral principal impulsor repunte</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,17 +1708,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>disponer de información detallada sobre la dinámica de la percepción de prestaciones de sa es crucial para el diseño de redes de seguridad social eficaces el número de beneficiarios proporciona información sobre la cobertura de las prestaciones de último recurso y su papel en la reducción de la pobreza o como estabilizadores automáticos en tiempos de crisis económica las tasas de transición de las prestaciones indican si las variaciones en las tasas de percepción a lo largo del tiempo se deben principalmente a cambios en las entradas o en las salidas y por tanto posiblemente si las políticas para reducir la percepción de prestaciones funcionan mejor cuando se centran en reducir las entradas o en promover las salidas otros parámetros políticos centrales como los niveles de las prestaciones y el diseño de las medidas de activación deberían depender de quién recibe las prestaciones y durante cuánto tiempo esta sección al igual que el resto del documento se centra en la dinámica de la percepción de prestaciones de la sa desde una perspectiva longitudinal</t>
+          <t>disponer información detallado dinámico percepción prestación so crucial diseño red seguridad social eficaz número beneficiario proporcionar información cobertura prestación recurso papel reducción pobreza estabilizador automático tiempo crisis económico tasa transición prestación indicar variación tasa percepción tiempo principalmente cambio entrada salido posiblemente política reducir percepción prestación funcionar centrar reducir entrada promover salida parámetro político central nivel prestación diseño medida activación deber depender recibir prestación tiempo sección resto documento centrar dinámica percepción prestación sa perspectiva longitudinal</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>en primer lugar necesitan saber realmente que las instituciones financieras ofrecen dichas pólizas a tasas razonables particularmente para clientes de bajos ingresos ya que el valor de la anualidad disminuye a medida que aumentan las tasas de interés y aumenta con la disminución de la esperanza de vida31 los propietarios de viviendas también deben sentirse capaces para hacer frente a la burocracia que plantearía la conversión de su valor acumulado de la vivienda el eje y muestra las reducciones porcentuales en el riesgo de pobreza para los mayores de 65 años y medido con referencia al 60 del ingreso equivalente del hogar extraído de la encuesta share los activos financieros abarcan cuentas de depósito bonos acciones fondos mutuos de inversión seguros de vida y activos financieros y de inversión que incluyen pensiones32 basándose en dos fuentes principales esta sección analiza dicha riqueza financiera y el papel que desempeña en los ingresos de jubilación adecuados</t>
+          <t>lugar necesitar realmente institución financiero ofrecer dicho póliza tasa razonable particularmente cliente bajo ingreso valor anualidad disminuir medida aumentar tasa interés aumentar disminución esperanzo vida31 propietario vivienda sentir él capaz frente burocracia plantear conversión valor acumulado vivienda eje mostrar reducción porcentual riesgo pobrezar mayor 65 año medido referencia 60 ingreso equivalente hogar extraer encuesta share activo financiero abarcar cuenta depósito bono acción fondo mutuo inversión seguro vida activo financiero inversión incluir pensiones32 basar él fuente principal sección analizar dicho riqueza financiero papel desempeñar ingreso jubilación adecuado</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>los modelos más comunes y su composición básica de pago se enumeran a continuación por ejemplo las organizaciones de salud familiar capitación combinada ffs y p4p y los grupos de salud familiar ffs combinados y p4p representan alrededor del 55 de los médicos de atención primaria tabla 24 además algunos incentivos se pagan periódicamente por ejemplo una vez al año mientras que otros se pagan cada vez que se brinda un servicio específico la elegibilidad para algunos incentivos se basa en el paciente es decir el médico recibe un pago por haber brindado un servicio específico a un paciente individual mientras que para otros incentivos la elegibilidad se basa en el desempeño de todos los pacientes registrados en toda la práctica es decir el médico recibe un pago por haber alcanzado un nivel objetivo predefinido basado en una cantidad de servicios una cantidad de pacientes o un porcentaje de pacientes elegibles que recibieron el servicio</t>
+          <t>modelo común composición básico pago enumerar continuación ejemplo organización salud familiar capitación combinado ffs p4p grupo salud familiar ffs combinado p4p representar 55 médico atención primario tablar 24 incentivo pagar periódicamente ejemplo año pagar brinda servicio específico elegibilidad incentivo basar paciente médico recibir pago brindado servicio específico paciente individual incentivo elegibilidad bás desempeño paciente registrado práctico médico recibir pago alcanzado nivel objetivo predefinido basado cantidad servicio cantidad paciente porcentaje paciente elegibl recibir servicio</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>en australia por ejemplo el programa de centros de prevención e intervención precoz de la psicosis eppic se amplió a los jóvenes para mejorar su acceso a la atención de salud mental la motivación para hacerlo surgió de los resultados de una encuesta según la cual el 25 de las personas que declaran padecer trastornos mentales en australia tienen su primer episodio de enfermedad mental antes de los 12 años y el 64 antes de los 21 y que existía un gran vacío de tratamiento para este grupo por poner un ejemplo de finlandia cuando la información de las encuestas puso de manifiesto la existencia de grupos con una tasa de suicidio especialmente elevada la prevención del suicidio se adaptó adecuadamente a estos grupos y contribuyó con éxito a reducir la tasa de suicidio las inversiones en encuestas dirigidas a la población son más fructíferas si dichas encuestas se utilizan para promover el acceso a un tratamiento adecuado lo que requiere inversión y reflexión en torno a unas buenas vías de derivación y tratamiento</t>
+          <t>australia ejemplo programa centro prevención intervención precoz psicosis eppic ampliar joven mejorar acceso atención salud mental motivación surgir resultado encuesta 25 persona declarar padecer trastorno mental australia episodio enfermedad mental 12 año 64 21 existir vacío tratamiento grupo ejemplo finlandia información encuesta poner manifiesto existencia grupo tasa suicidio especialmente elevado prevención suicidio adaptar adecuadamente grupo contribuir éxito reducir tasa suicidio inversión encuesta dirigido población fructífero dicho encuesta utilizar promover acceso tratamiento adecuado requerir inversión reflexión torno vía derivación tratamiento</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>los odm lanzados en 2000 también reunieron los estándares existentes en diferentes indicadores para proponer un conjunto armonizado de indicadores de los cuales la pobreza monetaria era solo un elemento en la agenda 2030 para el desarrollo sostenible el consenso mundial ha cambiado para ver la pobreza como multidimensional los precursores de este cambio conceptual incluyen 1 escritos académicos como los de amartya sen 1990 1991 2 aportes de personas pobres y organizaciones no gubernamentales consultas que conducen a los objetivos de desarrollo sostenible 3 una cada vez más visible literatura académica sobre la medición de la pobreza multidimensional y 4 el liderazgo pionero de países como colombia méxico china sudáfrica bután pakistán y otros en el uso de estadísticas de pobreza multidimensional para complementar las medidas monetarias y orientar las políticas informado por este consenso emergente el documento fundamental de los ods transformar nuestro mundo la agenda 2030 para el desarrollo sostenible identifica en su segunda oración el desafío global de reducir la pobreza en todas sus formas y dimensiones como el principal desafío de nuestro tiempo</t>
+          <t>odm lanzado 2000 reunir estándar existente indicador proponer conjunto armonizado indicador pobreza monetario elemento agendar 2030 desarrollo sostenible consenso mundial cambiado pobreza multidimensional precursor cambio conceptual incluir 1 escrito académico amartya sen 1990 1991 2 aporte persona pobre organización gubernamental consulta conducir objetivo desarrollo sostenible 3 visible literatura académico medición pobreza multidimensional 4 liderazgo pionero país colombia méxico chino sudáfrico bután pakistán estadístico pobreza multidimensional complementar medida monetario orientar política informado consenso emergente documento fundamental ods transformar mundo agendar 2030 desarrollo sostenible identifico oración desafío global reducir pobreza forma dimensión principal desafío tiempo</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>el vínculo entre la atención primaria de la salud y los resultados de salud para los aborígenes y los isleños del estrecho de torres en australia un informe para la oficina de salud de los aborígenes y los isleños del estrecho de torres departamento de salud y envejecimiento pueblos indígenas pobreza y desarrollo humano en américa latina 1994-2004 nueva york ny palgrave mcmillan</t>
+          <t>vínculo atención primario salud resultado salud aborigen isleño estrecho torre australia informe oficín salud aborigen isleño estrecho torre departamento salud envejecimiento pueblo indígena pobrezar desarrollo humano américa latino 1994-2004 york ny palgrave mcmillar</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,17 +1768,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>en este sentido lograr una distribución igualitaria del capital humano es similar a lograr una distribución igualitaria de los activos físicos mediante una distribución favorable a los pobres de los ingresos incrementales ambos son procesos que requieren tiempo sin embargo permitir que más personas adquieran más capital humano facilitándoles el acceso a la educación y la formación puede ser menos conflictivo que destinar más ingresos incrementales a los pobres para que aumenten sus activos físicos en este sentido la adquisición de capital humano puede constituir una vía más fácil para lograr una distribución más igualitaria de los bienes</t>
+          <t>sentido lograr distribución igualitario capital humano similar lograr distribución igualitario activo físico distribución favorable pobre ingreso incremental proceso requerir tiempo permitir persona adqueír capital humano facilitándol acceso educación formación conflictivo destinar ingreso incremental pobre aumentar activo físico sentido adquisición capital humano constituir vía fácil lograr distribución igualitario bién</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>sin embargo el valor de la transferencia como proporción del consumo total de los hogares sigue siendo muy bajo en los hogares beneficiarios pertenecientes al quintil más pobre el mb representa sólo el 7 del consumo total lo que representa lo inadecuado del valor de la prestación26 no es de extrañar por tanto que el impacto del mb en la reducción de la pobreza sea limitado la baja cobertura y los bajos valores de las transferencias limitan la eficacia de la prestación la cobertura es extremadamente baja y más del 80 de los más pobres están excluidos del mb específico</t>
+          <t>valor transferenciar proporción consumo hogar hogar beneficiario perteneciente quintil pobre mb representar 7 consumo representar inadecuado valor prestación26 extrañar impacto mb reducción pobreza limitado bajo cobertura bajo valor transferencia limitar eficacia prestación coberturo extremadamente bajo 80 pobre excluido mb específico</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1788,17 +1788,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>el porcentaje de población con algún nivel de carencia en el trabajo y la seguridad social fue del 84 en 2010 lo que demuestra que esta dimensión requiere una atención especial del gobierno y un aumento en la cobertura del sistema de seguridad social la población indígena presenta la mayor brecha de carencias ver cuadro 3 por último la brecha de privación laboral de los indígenas se redujo del 327 en 2006 al 156 en 2010 esta reducción no puede interpretarse de la misma manera como una tasa de recuento es decir una reducción en el número de personas pobres pero lo importante es que muestra que el nivel severidad de la pobreza multidimensional en el país ha disminuido</t>
+          <t>porcentaje población nivel carencia trabajo seguridad social 84 2010 demostrar dimensión requerir atención especial gobierno aumento cobertura sistema seguridad social población indígén presentar brecho carencia cuadro 3 brecho privación laboral indígena reducir 327 2006 156 2010 reducción interpretar él tasa recuento reducción número persona pobre importante mostrar nivel severidad pobreza multidimensional país disminuido</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>costa rica y paraguay los otros ingresos explicaron gran parte del aumento de los ingresos de los hogares pobres principalmente a través de la renta imputada en el caso de ecuador los ingresos por pensiones y transferencias evitaron que la pobreza aumentara entre 2015 y 2017 véase el gráfico ii7 los ingresos por transferencias en los hogares pobres aumentaron en casi todos los países</t>
+          <t>costa rico paraguay ingreso explicar aumento ingreso hogar pobre principalmente rentar imputado caso ecuador ingreso pensión transferencia evitar pobreza aumentar 2015 2017 véar gráfico ii7 ingreso transferencia hogar pobre aumentar país</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>los tipos de hogares analizados son los monoparentales femeninos y masculinos por un lado y los monoparentales femeninos y masculinos por otro en 16 de los 20 países con datos disponibles en la región las tasas de pobreza de los hogares de madres solas con hijos son más altas que las de los hogares de padres solos con hijos en más de 5 puntos porcentuales en los cuatro países restantes - el salvador honduras nicaragua y panamá - las tasas de pobreza para los dos tipos de hogares son similares</t>
+          <t>tipo hogar analizado monoparental femenino masculino monoparental femenino masculino 16 20 país dato disponible región tasa pobreza hogar madre hijo alto hogar padr hijo 5 punto porcentual país restante salvador honduras nicaraguo panamá tasa pobrezar tipo hogar similar</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,17 +1818,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>al igual que para el grupo anterior de países las estimaciones oficiales de pobreza coinciden en la dirección de la variación aunque en general reportan mayores reducciones de la pobreza en ecuador panamá el estado plurinacional de bolivia y uruguay las cifras de la cepal buscan reflejar la situación de la región de la manera más comparable posible mientras que las cifras nacionales buscan captar de la mejor manera las realidades de cada país esto lleva a diferencias metodológicas normales en las múltiples decisiones que se toman en el proceso de construcción de las líneas de pobreza la forma en que se seleccionan los bienes de la canasta básica alimentaria y no alimentaria los precios utilizados para asignar valor a estos bienes o los deflactores utilizados para actualizar las líneas de pobreza entre muchos otros factores así como en la definición de los ingresos de los hogares el tratamiento de las no respuestas o la inclusión del alquiler imputado por el uso de viviendas ocupadas por sus propietarios</t>
+          <t>grupo país estimación oficial pobreza coincidir dirección variación general reportar mayor reducción pobreza ecuador panamá plurinacional bolivia uruguay cifra cepal buscar reflejar situación región comparable cifra nacional buscar captar realidad país diferencia metodológico normal múltiple decisión tomar proceso construcción líneas pobreza forma seleccionar bien canasta básico alimentario alimentario precio utilizado asignar valor bién deflactor utilizado actualizar líneas pobreza factor definición ingreso hogar tratamiento respuesta inclusión alquiler imputado vivienda ocupado propietario</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>chile también vio disminuir la pobreza en este caso entre 2015 y 2017 las estimaciones oficiales disponibles para estos países corroboran las tendencias descritas aunque las estimaciones son mayores en argentina y el salvador menores en costa rica y similares en los demás países ver tabla ii2 figura ii3 y cuadro del anexo iia12 este es el caso de ecuador panamá perú el estado plurinacional de bolivia y uruguay entre los países con datos disponibles hasta 2017 solo brasil mostró un leve aumento de la pobreza</t>
+          <t>chile ver disminuir pobreza caso 2015 2017 estimación oficial disponible país corroborar tendencia descrito estimación mayor argentina salvador menor costa rico similar país tabla ii2 figurar ii3 cuadro anexo iia12 caso ecuador panamá perú plurinacional bolivia uruguay país dato disponible 2017 brasil mostrar leve aumento pobrezo</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>en primer lugar los resultados generalmente atractivos en términos de efectos de alivio de la pobreza y la desigualdad de las reformas de la política comercial ya sean unilaterales o multilaterales brindan otra razón más de por qué a los países les interesa buscar una mayor liberalización de los mercados nacionales y mundiales según el estudio de indonesia por ejemplo se espera que la liberalización comercial unilateral reduzca la pobreza muy levemente pero se espera que la liberalización por parte del resto del mundo reduzca la pobreza de manera muy sustancial en filipinas la reforma interna por sí sola a partir de los niveles actuales de protección podría aumentar marginalmente las tasas de pobreza mientras que la liberalización del resto del mundo lo compensaría casi por completo y lo compensaría con creces en el caso de solo la reforma agrícola</t>
+          <t>lugar resultado generalmente atractivo término efecto alivio pobreza desigualdad reforma político comercial unilateral multilateral brindar razón país interesar buscar liberalización mercado nacional mundial estudio indonesio ejemplo esperar liberalización comercial unilateral reducir pobreza levemente esperar liberalización resto mundo reducir pobreza sustancial filipino reforma interno nivel actual protección aumentar marginalmente tasa pobrezar liberalización resto mundo compensar completo compensar crez caso reforma agrícola</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>las transferencias monetarias condicionadas de bolsa famflia han demostrado ser fundamentales para lograr la reducción de la pobreza observada en los últimos años el cambio de paradigma que implicó requirió una medida inusual de coraje y voluntad política aunque la constitución de brasil ya había incluido la erradicación de la pobreza entre sus fundamentos básicos la tendencia a culpar a los pobres por ser pobres todavía estaba muy arraigada en la sociedad generando una fuerte oposición al programa en sus primeros años para dar ayuda donde se necesitaba el gobierno federal tuvo que mejorar la estructura de sus redes de asistencia social y las de los municipios</t>
+          <t>transferencia monetario condicionado bolsa famflia demostrado fundamental lograr reducción pobreza observado año cambio paradigma implicar requerir medida inusual coraje voluntad político constitución brasil incluido erradicación pobreza fundamento básico tendencia culpar pobre pobre arraigado sociedad generar fuerte oposición programa año ayuda necesitar gobierno federal mejorar estructura red asistencia social municipio</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>a esto se suma el riesgo de pobreza entre los menores de 15 años y la falta de mecanismos permanentes e integrales para los mayores de 65 años en 2008 la incidencia de la pobreza en el segmento de 0 a 14 años en países como argentina brasil panamá y uruguay duplicaba la de los adultos cepal 2010b p 195 esto crea un escenario complejo en términos de transmisión intergeneracional de la pobreza y plantea dudas sobre los pactos que sustentan el actual apoyo del estado y la sociedad civil a las familias para el cuidado desarrollo de capacidades y protección de los niños cepal 2010b</t>
+          <t>sumar riesgo pobrezar menor 15 año faltar mecanismo permanente integral mayor 65 año 2008 incidencia pobreza segmento 0 14 año país argentino brasil panamá uruguay duplicar adulto cepal 2010b p 195 creer escenario complejo término transmisión intergeneracional pobreza plantear duda pacto sustentar actual apoyo sociedad civil familia cuidado desarrollo capacidad protección niño cepal 2010b</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>hijos de la austeridad impacto de la gran recesión en la pobreza infantil en los países ricos oxford university press la tasa de pobreza infantil por ingresos suele definirse como la proporción de niños de 0 a 17 años que viven en hogares con ingresos equivalentes inferiores a un cierto umbral por debajo del cual se considera que todos los miembros de la familia son pobres la atención se centra en la situación de los ingresos de los niños en relación con el individuo medio del país definido como la persona con ingresos medios no el niño medio corak 200586i</t>
+          <t>hijo austeridad impacto recesión pobreza infantil país rico oxford university press tasa pobreza infantil ingreso soler definir él proporción niño 0 17 año vivir hogar ingreso equivalente inferior umbral miembro familiar pobre atención centrar situación ingreso niño relación individuo país definido personar ingreso medio niño corak 200586i</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1878,17 +1878,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>realizar una evaluación rigurosa de las políticas sociales queda fuera del alcance del presente documento y de la disponibilidad actual de datos sin embargo podemos utilizar los datos recogidos sobre las prestaciones familiares para los pobres para tener una idea más clara de la situación actual en función de la puntuación la familia se inscribe para recibir estas prestaciones alrededor del 10 de los niños son a la vez pobres y desfavorecidos en 2 o más carencias y viven en familias que reciben prestaciones familiares de pobreza</t>
+          <t>evaluación riguroso política social quedar alcance presente documento disponibilidad actual dato utilizar dato recogido prestación familiar pobre idea claro situación actual función puntuación familio inscribir recibir prestación 10 niño pobre desfavorecido 2 carencia vivir familia recibir prestación familiar pobrezar</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>por lo tanto se necesitan múltiples indicadores además de las medidas monetarias de ingresos y gastos para captar la escala y las dimensiones de la pobreza si bien la pobreza monetaria puede afectar solo a una minoría solo unos pocos pueden escapar de la pobreza en cualquier forma desplazar la línea hacia arriba o hacia abajo podría marcar una diferencia dramática con respecto a la incidencia estimada de la pobreza monetaria</t>
+          <t>necesitar múltiple indicador medida monetario ingreso gasto captar escala dimensión pobrezar pobreza monetario afectar minoría escapar pobreza forma desplazar línea abajo marcar diferencia dramático incidencia estimado pobreza monetario</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,17 +1898,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>los niños que sufren carencias mientras no viven en hogares pobres tienden a ser un poco mayores tienen un cabeza de familia con menos educación y es más probable que trabaje en una granja más de la mitad de estos niños vive en zonas rurales los niños que son pobres y desfavorecidos tienen más probabilidades de vivir con un cabeza de familia que probablemente sea mujer un poco mayor y menos probable que tenga una educación superior</t>
+          <t>niño sufrir carencia vivir hogar pobre tender mayor cabeza familio educación probable trabaje granja mitad niño vivir zona rural niño pobre desfavorecido probabilidad vivir cabeza familio probablemente mujer probable educación superior</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>distribución de ingresos y pobreza en los países de la ocde parís 2008 en particular el índice de theil se puede descomponer en la suma de dos factores la desigualdad intragrupo o el grado de dispersión de los ingresos dentro de cada grupo y la desigualdad de grupo que es la dispersión del ingreso promedio entre grupos la desigualdad intragrupo también corresponde a la suma de los índices de theil de cada grupo ponderados por su participación en el ingreso total de ese grupo</t>
+          <t>distribución ingreso pobrezar país ocde parís 2008 particular índice theil descomponer suma factor desigualdad intragraber grado dispersión ingreso grupo desigualdad grupo dispersión ingreso promedio grupo desigualdad intragrupo corresponder sumar índice theil grupo ponderado participación ingreso grupo</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1918,27 +1918,27 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>en croacia grecia y rumanía 1 de cada 3 niños se encuentra en el percentil 10 inferior en suiza al menos el 15 de los niños de las familias más pobres viven en hogares que no pueden permitirse actividades de ocio regulares para sus hijos la proporción de niños en el extremo inferior de la distribución de ingresos que viven en hogares que no pueden pagar artículos que se consideran necesarios o deseables para un nivel de vida aceptable aumentó entre 2009 y 2013 en la mayoría de los casos analizados aquí</t>
+          <t>croacia grecia rumanía 1 3 niño percentil 10 inferior suiza 15 niño familia pobre vivir hogar permitir él actividad ocio regular hijo proporción niño extremo inferior distribución ingreso vivir hogar pagar artículo considerar necesario deseable nivel vida aceptable aumentar 2009 2013 mayoer caso analizado</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>el informe también es una adición oportuna a los llamados realizados por la comisión sobre la pobreza global la organización para la cooperación y el desarrollo económicos y otros para incorporar las dimensiones de la calidad de vida en la forma en que entendemos y determinamos la privación humana pero todos los mejores datos del mundo no nos servirán de mucho si se quedan en un estante acumulando polvo deben utilizarse para influir en la toma de decisiones y la rendición de cuentas y en última instancia para transformar la vida de las personas más vulnerables del mundo los últimos 15 años nos han demostrado que es posible avanzar en la pobreza pero también sabemos que no es inevitable ni ha sido universal mi esperanza es que este informe catalice a la comunidad mundial para garantizar que esta vez nadie se quede atrás</t>
+          <t>informir adición oportuno llamado realizado comisión pobreza global organización cooperación desarrollo económico incorporar dimensión calidad vida forma entender determinamos privación humano mejor dato mundo servir quedar estante acumular polvo utilizar él influir tomar decisión rendición cuenta instancia transformar vida persona vulnerable mundo 15 año demostrado avanzar pobreza inevitable universal esperanza informe catalicir comunidad mundial garantizar quedar atrás</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>además de los 1200 millones que salieron de la pobreza extrema 1100 millones eran de asia y el pacífico los países de población que viven en la pobreza extrema como pakistán del 647 al 127 camboya del 445 al ​​101 azerbaiyán del 25 a solo el 03 y tailandia del 116 por ciento a solo 03 por ciento han informado disminuciones significativas en el porcentaje de su población que vive en la pobreza extrema aunque existen líneas de pobreza internacionales no existen estándares internacionales acordados sobre cómo medir la pobreza a nivel nacional dado que la medición de la pobreza se trata esencialmente de la distribución de la riqueza cuanto más desagregados estén los datos disponibles sobre individuos y pequeños grupos dentro de una población mayor será el valor de la información que se pueda derivar de los análisis de la pobreza tales mediciones y medidas normativas son importantes en asia y el pacífico especialmente en vista de las tasas generales de pobreza en constante descenso que se están produciendo a pesar de la existencia de focos persistentes de pobreza de hecho con ese fin los estados indios que ya tienen capacidad estadística realizan censos a nivel estatal sobre las personas que viven por debajo del umbral de la pobreza</t>
+          <t>1200 millón salir pobreza extremo 1100 millón asia pacífico país población vivir pobreza extremo pakistán 647 127 camboyar 445 ​​101 azerbaiyán 25 03 tailandia 116 ciento 03 ciento informado disminución significativo porcentaje población vivir pobreza extremo línea pobreza internacional estándar internacional acordado medir pobreza nivel nacional medición pobreza esencialmente distribución riqueza desagregado estar dato disponible individuo pequeño grupo población valor información derivar análisis pobreza tal medición medida normativo importante asia pacífico especialmente visto tasa general pobreza constante descenso producir existencia foco persistente pobreza indio capacidad estadístico realizar censo nivel estatal persona vivir umbral pobreza</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>aunque el porcentaje de población en situación de pobreza extrema en cada región ha disminuido desde 1990 con importantes variaciones entre países el descenso ha sido más rápido en asia meridional el ífrica subsahariana parece que será la única región que no alcanzará la meta del primer objetivo de desarrollo del milenio de reducir a la mitad la pobreza extrema a un nivel de s125 al día para 201510 de los pobres extremos restantes 161 millones viven en asia oriental y el pacífico con el mayor número en indonesia otras regiones suman menos de 50 millones apenas el 35 de los pobres extremos del mundo</t>
+          <t>porcentaje población situación pobreza extremo región disminuido 1990 importante variación país descenso rápido asia meridional ífrico subsaharián único región alcanzar meta objetivo desarrollo milenio reducir mitad pobreza extremo nivel s125 201510 pobre extremo restante 161 millón vivir asia oriental pacífico número indonesio región sumar 50 millón 35 pobre extremo mundo</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1958,11 +1958,11 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>el csg estaba inicialmente destinado a niños pobres de hasta siete años pero se ha ampliado progresivamente a niños pobres de hasta 15 años como consecuencia de la crisis financiera el gobierno de sudáfrica ha ampliado aún más el límite de edad hasta los 17 años los niños deben ser ciudadanos sudafricanos y tener ingresos familiares per cápita por debajo de un umbral</t>
+          <t>csg inicialmente destinado niño pobre año ampliado progresivamente niño pobre 15 año consecuencia crisis financiero gobierno sudáfrico ampliado límite edad 17 año niño ciudadano sudafricano ingreso familiar per cápita umbral</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
